--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.0.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1231727D-C5C5-40AE-A1C0-7D72DC322CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE10B9-FF1C-434F-A08B-3D22BC5D9C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{53722CFA-7A49-4FF3-BDD5-F566020460F3}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{53722CFA-7A49-4FF3-BDD5-F566020460F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="143">
   <si>
     <t>metric</t>
   </si>
@@ -421,6 +421,54 @@
   <si>
     <t>random</t>
   </si>
+  <si>
+    <t>cat.0.0</t>
+  </si>
+  <si>
+    <t>arb_Arab.cat.0.0</t>
+  </si>
+  <si>
+    <t>deu_Latn.cat.0.0</t>
+  </si>
+  <si>
+    <t>fra_Latn.cat.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.cat.0.0</t>
+  </si>
+  <si>
+    <t>zho_Hans.cat.0.0</t>
+  </si>
+  <si>
+    <t>spa_Latn.cat.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.cat.0.0</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>arabic.cat</t>
+  </si>
+  <si>
+    <t>german.cat</t>
+  </si>
+  <si>
+    <t>french.cat</t>
+  </si>
+  <si>
+    <t>farsi.cat</t>
+  </si>
+  <si>
+    <t>chinese.cat</t>
+  </si>
+  <si>
+    <t>spanish.cat</t>
+  </si>
+  <si>
+    <t>all.cat</t>
+  </si>
 </sst>
 </file>
 
@@ -765,11 +813,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901AC9F6-3F61-4D99-A2B8-59BBBDA487EB}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4757,6 +4805,615 @@
         <v>7.1428571428571001E-3</v>
       </c>
     </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133" t="s">
+        <v>129</v>
+      </c>
+      <c r="E133" t="s">
+        <v>130</v>
+      </c>
+      <c r="F133" t="s">
+        <v>131</v>
+      </c>
+      <c r="G133" t="s">
+        <v>132</v>
+      </c>
+      <c r="H133" t="s">
+        <v>133</v>
+      </c>
+      <c r="I133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C134">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D134">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E134">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F134">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G134">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H134">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I134">
+        <v>0.51946308724832213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>0.12724832214765069</v>
+      </c>
+      <c r="C135">
+        <v>0.13073825503355679</v>
+      </c>
+      <c r="D135">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="E135">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="F135">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="G135">
+        <v>0.1312751677852346</v>
+      </c>
+      <c r="H135">
+        <v>0.13422818791946281</v>
+      </c>
+      <c r="I135">
+        <v>0.13020134228187891</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>6.6711409395973004E-2</v>
+      </c>
+      <c r="C136">
+        <v>6.60402684563757E-2</v>
+      </c>
+      <c r="D136">
+        <v>6.7651006711409195E-2</v>
+      </c>
+      <c r="E136">
+        <v>6.8456375838925998E-2</v>
+      </c>
+      <c r="F136">
+        <v>6.8859060402684399E-2</v>
+      </c>
+      <c r="G136">
+        <v>6.6845637583892406E-2</v>
+      </c>
+      <c r="H136">
+        <v>6.8322147651006498E-2</v>
+      </c>
+      <c r="I136">
+        <v>6.6174496644295103E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>7.5033557046978996E-3</v>
+      </c>
+      <c r="C137">
+        <v>7.4765100671139997E-3</v>
+      </c>
+      <c r="D137">
+        <v>7.5302013422818004E-3</v>
+      </c>
+      <c r="E137">
+        <v>7.4630872483221001E-3</v>
+      </c>
+      <c r="F137">
+        <v>7.5704697986576997E-3</v>
+      </c>
+      <c r="G137">
+        <v>7.5302013422818004E-3</v>
+      </c>
+      <c r="H137">
+        <v>7.5436241610737998E-3</v>
+      </c>
+      <c r="I137">
+        <v>7.3288590604025997E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C138">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D138">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E138">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F138">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G138">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H138">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I138">
+        <v>0.51946308724832213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>0.63624161073825491</v>
+      </c>
+      <c r="C139">
+        <v>0.65369127516778525</v>
+      </c>
+      <c r="D139">
+        <v>0.66845637583892614</v>
+      </c>
+      <c r="E139">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="F139">
+        <v>0.66845637583892636</v>
+      </c>
+      <c r="G139">
+        <v>0.65637583892617446</v>
+      </c>
+      <c r="H139">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="I139">
+        <v>0.65100671140939592</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140">
+        <v>0.66711409395973154</v>
+      </c>
+      <c r="C140">
+        <v>0.66040268456375828</v>
+      </c>
+      <c r="D140">
+        <v>0.676510067114094</v>
+      </c>
+      <c r="E140">
+        <v>0.68456375838926165</v>
+      </c>
+      <c r="F140">
+        <v>0.68859060402684558</v>
+      </c>
+      <c r="G140">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="H140">
+        <v>0.68322147651006715</v>
+      </c>
+      <c r="I140">
+        <v>0.66174496644295311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>0.75033557046979871</v>
+      </c>
+      <c r="C141">
+        <v>0.74765100671140938</v>
+      </c>
+      <c r="D141">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="E141">
+        <v>0.74630872483221489</v>
+      </c>
+      <c r="F141">
+        <v>0.75704697986577185</v>
+      </c>
+      <c r="G141">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="H141">
+        <v>0.75436241610738253</v>
+      </c>
+      <c r="I141">
+        <v>0.73288590604026849</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C142">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D142">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E142">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F142">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G142">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H142">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I142">
+        <v>0.51946308724832213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <v>0.55979169328825873</v>
+      </c>
+      <c r="C143">
+        <v>0.59588690162440094</v>
+      </c>
+      <c r="D143">
+        <v>0.61028218606613982</v>
+      </c>
+      <c r="E143">
+        <v>0.60399148339870223</v>
+      </c>
+      <c r="F143">
+        <v>0.61124668332199983</v>
+      </c>
+      <c r="G143">
+        <v>0.60820197102678586</v>
+      </c>
+      <c r="H143">
+        <v>0.612702768995806</v>
+      </c>
+      <c r="I143">
+        <v>0.59659542241813279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144">
+        <v>0.57002531673800683</v>
+      </c>
+      <c r="C144">
+        <v>0.59805196024957741</v>
+      </c>
+      <c r="D144">
+        <v>0.61284670297351529</v>
+      </c>
+      <c r="E144">
+        <v>0.60910433225960969</v>
+      </c>
+      <c r="F144">
+        <v>0.61786621425965504</v>
+      </c>
+      <c r="G144">
+        <v>0.61217689478621029</v>
+      </c>
+      <c r="H144">
+        <v>0.61658085012701935</v>
+      </c>
+      <c r="I144">
+        <v>0.60012080905657106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145">
+        <v>0.58679042507998858</v>
+      </c>
+      <c r="C145">
+        <v>0.61578727757778817</v>
+      </c>
+      <c r="D145">
+        <v>0.62790219206125064</v>
+      </c>
+      <c r="E145">
+        <v>0.62149470229321124</v>
+      </c>
+      <c r="F145">
+        <v>0.63163610694095595</v>
+      </c>
+      <c r="G145">
+        <v>0.62889645970843033</v>
+      </c>
+      <c r="H145">
+        <v>0.63031695040737312</v>
+      </c>
+      <c r="I145">
+        <v>0.61364582810354285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C146">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D146">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E146">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F146">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G146">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H146">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I146">
+        <v>0.51946308724832213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147">
+        <v>0.53382550335570467</v>
+      </c>
+      <c r="C147">
+        <v>0.57599552572706947</v>
+      </c>
+      <c r="D147">
+        <v>0.59035794183445189</v>
+      </c>
+      <c r="E147">
+        <v>0.58194630872483222</v>
+      </c>
+      <c r="F147">
+        <v>0.59178970917225948</v>
+      </c>
+      <c r="G147">
+        <v>0.59167785234899328</v>
+      </c>
+      <c r="H147">
+        <v>0.59281879194630882</v>
+      </c>
+      <c r="I147">
+        <v>0.57787472035794185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148">
+        <v>0.53819803984233516</v>
+      </c>
+      <c r="C148">
+        <v>0.57688611910088416</v>
+      </c>
+      <c r="D148">
+        <v>0.59139235112389466</v>
+      </c>
+      <c r="E148">
+        <v>0.58400394162139124</v>
+      </c>
+      <c r="F148">
+        <v>0.59458346649621829</v>
+      </c>
+      <c r="G148">
+        <v>0.59335943325876206</v>
+      </c>
+      <c r="H148">
+        <v>0.59440289762437415</v>
+      </c>
+      <c r="I148">
+        <v>0.57936188345584316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>0.5412197115803431</v>
+      </c>
+      <c r="C149">
+        <v>0.58016658535577448</v>
+      </c>
+      <c r="D149">
+        <v>0.59393327625827308</v>
+      </c>
+      <c r="E149">
+        <v>0.58617770419910309</v>
+      </c>
+      <c r="F149">
+        <v>0.59699994785401356</v>
+      </c>
+      <c r="G149">
+        <v>0.5962181942003284</v>
+      </c>
+      <c r="H149">
+        <v>0.59661833304004386</v>
+      </c>
+      <c r="I149">
+        <v>0.58148419360656312</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C150">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D150">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E150">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F150">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G150">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H150">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I150">
+        <v>0.51946308724832213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151">
+        <v>0.63624161073825491</v>
+      </c>
+      <c r="C151">
+        <v>0.65369127516778525</v>
+      </c>
+      <c r="D151">
+        <v>0.66845637583892614</v>
+      </c>
+      <c r="E151">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="F151">
+        <v>0.66845637583892636</v>
+      </c>
+      <c r="G151">
+        <v>0.65637583892617446</v>
+      </c>
+      <c r="H151">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="I151">
+        <v>0.65100671140939592</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152">
+        <v>0.66711409395973154</v>
+      </c>
+      <c r="C152">
+        <v>0.66040268456375828</v>
+      </c>
+      <c r="D152">
+        <v>0.676510067114094</v>
+      </c>
+      <c r="E152">
+        <v>0.68456375838926165</v>
+      </c>
+      <c r="F152">
+        <v>0.68859060402684558</v>
+      </c>
+      <c r="G152">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="H152">
+        <v>0.68322147651006715</v>
+      </c>
+      <c r="I152">
+        <v>0.66174496644295311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153">
+        <v>0.75033557046979871</v>
+      </c>
+      <c r="C153">
+        <v>0.74765100671140938</v>
+      </c>
+      <c r="D153">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="E153">
+        <v>0.74630872483221489</v>
+      </c>
+      <c r="F153">
+        <v>0.75704697986577185</v>
+      </c>
+      <c r="G153">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="H153">
+        <v>0.75436241610738253</v>
+      </c>
+      <c r="I153">
+        <v>0.73288590604026849</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:I2">
     <cfRule type="colorScale" priority="121">
@@ -5964,10 +6621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBECD57-414E-4FBB-BE4B-CF0CB17B43F6}">
-  <dimension ref="A1:CF83"/>
+  <dimension ref="A1:CF105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S95" sqref="S95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12042,7 +12699,7 @@
         <v>4.1530685689799998E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -12071,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -12100,7 +12757,7 @@
         <v>2.79017857142857E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -12127,6 +12784,1074 @@
       </c>
       <c r="I83" s="1">
         <v>1.7671130952380001E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" t="s">
+        <v>140</v>
+      </c>
+      <c r="H85" t="s">
+        <v>141</v>
+      </c>
+      <c r="I85" t="s">
+        <v>142</v>
+      </c>
+      <c r="L85" t="s">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>4</v>
+      </c>
+      <c r="P85" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>6</v>
+      </c>
+      <c r="R85" t="s">
+        <v>7</v>
+      </c>
+      <c r="S85" t="s">
+        <v>8</v>
+      </c>
+      <c r="T85" t="s">
+        <v>9</v>
+      </c>
+      <c r="U85" t="s">
+        <v>10</v>
+      </c>
+      <c r="V85" t="s">
+        <v>11</v>
+      </c>
+      <c r="W85" t="s">
+        <v>12</v>
+      </c>
+      <c r="X85" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C86">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D86">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E86">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F86">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G86">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H86">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I86">
+        <v>0.51946308724832213</v>
+      </c>
+      <c r="L86" t="s">
+        <v>135</v>
+      </c>
+      <c r="M86">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="N86">
+        <v>0.12724832214765069</v>
+      </c>
+      <c r="O86">
+        <v>6.6711409395973004E-2</v>
+      </c>
+      <c r="P86">
+        <v>7.5033557046978996E-3</v>
+      </c>
+      <c r="Q86">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="R86">
+        <v>0.63624161073825491</v>
+      </c>
+      <c r="S86">
+        <v>0.66711409395973154</v>
+      </c>
+      <c r="T86">
+        <v>0.75033557046979871</v>
+      </c>
+      <c r="U86">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="V86">
+        <v>0.55979169328825873</v>
+      </c>
+      <c r="W86">
+        <v>0.57002531673800683</v>
+      </c>
+      <c r="X86">
+        <v>0.58679042507998858</v>
+      </c>
+      <c r="Y86">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="Z86">
+        <v>0.53382550335570467</v>
+      </c>
+      <c r="AA86">
+        <v>0.53819803984233516</v>
+      </c>
+      <c r="AB86">
+        <v>0.5412197115803431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>0.12724832214765069</v>
+      </c>
+      <c r="C87">
+        <v>0.13073825503355679</v>
+      </c>
+      <c r="D87">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="E87">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="F87">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="G87">
+        <v>0.1312751677852346</v>
+      </c>
+      <c r="H87">
+        <v>0.13422818791946281</v>
+      </c>
+      <c r="I87">
+        <v>0.13020134228187891</v>
+      </c>
+      <c r="L87" t="s">
+        <v>136</v>
+      </c>
+      <c r="M87">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="N87">
+        <v>0.13073825503355679</v>
+      </c>
+      <c r="O87">
+        <v>6.60402684563757E-2</v>
+      </c>
+      <c r="P87">
+        <v>7.4765100671139997E-3</v>
+      </c>
+      <c r="Q87">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="R87">
+        <v>0.65369127516778525</v>
+      </c>
+      <c r="S87">
+        <v>0.66040268456375828</v>
+      </c>
+      <c r="T87">
+        <v>0.74765100671140938</v>
+      </c>
+      <c r="U87">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="V87">
+        <v>0.59588690162440094</v>
+      </c>
+      <c r="W87">
+        <v>0.59805196024957741</v>
+      </c>
+      <c r="X87">
+        <v>0.61578727757778817</v>
+      </c>
+      <c r="Y87">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="Z87">
+        <v>0.57599552572706947</v>
+      </c>
+      <c r="AA87">
+        <v>0.57688611910088416</v>
+      </c>
+      <c r="AB87">
+        <v>0.58016658535577448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>6.6711409395973004E-2</v>
+      </c>
+      <c r="C88">
+        <v>6.60402684563757E-2</v>
+      </c>
+      <c r="D88">
+        <v>6.7651006711409195E-2</v>
+      </c>
+      <c r="E88">
+        <v>6.8456375838925998E-2</v>
+      </c>
+      <c r="F88">
+        <v>6.8859060402684399E-2</v>
+      </c>
+      <c r="G88">
+        <v>6.6845637583892406E-2</v>
+      </c>
+      <c r="H88">
+        <v>6.8322147651006498E-2</v>
+      </c>
+      <c r="I88">
+        <v>6.6174496644295103E-2</v>
+      </c>
+      <c r="L88" t="s">
+        <v>137</v>
+      </c>
+      <c r="M88">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="N88">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="O88">
+        <v>6.7651006711409195E-2</v>
+      </c>
+      <c r="P88">
+        <v>7.5302013422818004E-3</v>
+      </c>
+      <c r="Q88">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="R88">
+        <v>0.66845637583892614</v>
+      </c>
+      <c r="S88">
+        <v>0.676510067114094</v>
+      </c>
+      <c r="T88">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="U88">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="V88">
+        <v>0.61028218606613982</v>
+      </c>
+      <c r="W88">
+        <v>0.61284670297351529</v>
+      </c>
+      <c r="X88">
+        <v>0.62790219206125064</v>
+      </c>
+      <c r="Y88">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="Z88">
+        <v>0.59035794183445189</v>
+      </c>
+      <c r="AA88">
+        <v>0.59139235112389466</v>
+      </c>
+      <c r="AB88">
+        <v>0.59393327625827308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>7.5033557046978996E-3</v>
+      </c>
+      <c r="C89">
+        <v>7.4765100671139997E-3</v>
+      </c>
+      <c r="D89">
+        <v>7.5302013422818004E-3</v>
+      </c>
+      <c r="E89">
+        <v>7.4630872483221001E-3</v>
+      </c>
+      <c r="F89">
+        <v>7.5704697986576997E-3</v>
+      </c>
+      <c r="G89">
+        <v>7.5302013422818004E-3</v>
+      </c>
+      <c r="H89">
+        <v>7.5436241610737998E-3</v>
+      </c>
+      <c r="I89">
+        <v>7.3288590604025997E-3</v>
+      </c>
+      <c r="L89" t="s">
+        <v>138</v>
+      </c>
+      <c r="M89">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="N89">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="O89">
+        <v>6.8456375838925998E-2</v>
+      </c>
+      <c r="P89">
+        <v>7.4630872483221001E-3</v>
+      </c>
+      <c r="Q89">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="R89">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="S89">
+        <v>0.68456375838926165</v>
+      </c>
+      <c r="T89">
+        <v>0.74630872483221489</v>
+      </c>
+      <c r="U89">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="V89">
+        <v>0.60399148339870223</v>
+      </c>
+      <c r="W89">
+        <v>0.60910433225960969</v>
+      </c>
+      <c r="X89">
+        <v>0.62149470229321124</v>
+      </c>
+      <c r="Y89">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="Z89">
+        <v>0.58194630872483222</v>
+      </c>
+      <c r="AA89">
+        <v>0.58400394162139124</v>
+      </c>
+      <c r="AB89">
+        <v>0.58617770419910309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C90">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D90">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E90">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F90">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G90">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H90">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I90">
+        <v>0.51946308724832213</v>
+      </c>
+      <c r="L90" t="s">
+        <v>139</v>
+      </c>
+      <c r="M90">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="N90">
+        <v>0.1336912751677849</v>
+      </c>
+      <c r="O90">
+        <v>6.8859060402684399E-2</v>
+      </c>
+      <c r="P90">
+        <v>7.5704697986576997E-3</v>
+      </c>
+      <c r="Q90">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="R90">
+        <v>0.66845637583892636</v>
+      </c>
+      <c r="S90">
+        <v>0.68859060402684558</v>
+      </c>
+      <c r="T90">
+        <v>0.75704697986577185</v>
+      </c>
+      <c r="U90">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="V90">
+        <v>0.61124668332199983</v>
+      </c>
+      <c r="W90">
+        <v>0.61786621425965504</v>
+      </c>
+      <c r="X90">
+        <v>0.63163610694095595</v>
+      </c>
+      <c r="Y90">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="Z90">
+        <v>0.59178970917225948</v>
+      </c>
+      <c r="AA90">
+        <v>0.59458346649621829</v>
+      </c>
+      <c r="AB90">
+        <v>0.59699994785401356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>0.63624161073825491</v>
+      </c>
+      <c r="C91">
+        <v>0.65369127516778525</v>
+      </c>
+      <c r="D91">
+        <v>0.66845637583892614</v>
+      </c>
+      <c r="E91">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="F91">
+        <v>0.66845637583892636</v>
+      </c>
+      <c r="G91">
+        <v>0.65637583892617446</v>
+      </c>
+      <c r="H91">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="I91">
+        <v>0.65100671140939592</v>
+      </c>
+      <c r="L91" t="s">
+        <v>140</v>
+      </c>
+      <c r="M91">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="N91">
+        <v>0.1312751677852346</v>
+      </c>
+      <c r="O91">
+        <v>6.6845637583892406E-2</v>
+      </c>
+      <c r="P91">
+        <v>7.5302013422818004E-3</v>
+      </c>
+      <c r="Q91">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="R91">
+        <v>0.65637583892617446</v>
+      </c>
+      <c r="S91">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="T91">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="U91">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="V91">
+        <v>0.60820197102678586</v>
+      </c>
+      <c r="W91">
+        <v>0.61217689478621029</v>
+      </c>
+      <c r="X91">
+        <v>0.62889645970843033</v>
+      </c>
+      <c r="Y91">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="Z91">
+        <v>0.59167785234899328</v>
+      </c>
+      <c r="AA91">
+        <v>0.59335943325876206</v>
+      </c>
+      <c r="AB91">
+        <v>0.5962181942003284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>0.66711409395973154</v>
+      </c>
+      <c r="C92">
+        <v>0.66040268456375828</v>
+      </c>
+      <c r="D92">
+        <v>0.676510067114094</v>
+      </c>
+      <c r="E92">
+        <v>0.68456375838926165</v>
+      </c>
+      <c r="F92">
+        <v>0.68859060402684558</v>
+      </c>
+      <c r="G92">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="H92">
+        <v>0.68322147651006715</v>
+      </c>
+      <c r="I92">
+        <v>0.66174496644295311</v>
+      </c>
+      <c r="L92" t="s">
+        <v>141</v>
+      </c>
+      <c r="M92">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="N92">
+        <v>0.13422818791946281</v>
+      </c>
+      <c r="O92">
+        <v>6.8322147651006498E-2</v>
+      </c>
+      <c r="P92">
+        <v>7.5436241610737998E-3</v>
+      </c>
+      <c r="Q92">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="R92">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="S92">
+        <v>0.68322147651006715</v>
+      </c>
+      <c r="T92">
+        <v>0.75436241610738253</v>
+      </c>
+      <c r="U92">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="V92">
+        <v>0.612702768995806</v>
+      </c>
+      <c r="W92">
+        <v>0.61658085012701935</v>
+      </c>
+      <c r="X92">
+        <v>0.63031695040737312</v>
+      </c>
+      <c r="Y92">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="Z92">
+        <v>0.59281879194630882</v>
+      </c>
+      <c r="AA92">
+        <v>0.59440289762437415</v>
+      </c>
+      <c r="AB92">
+        <v>0.59661833304004386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>0.75033557046979871</v>
+      </c>
+      <c r="C93">
+        <v>0.74765100671140938</v>
+      </c>
+      <c r="D93">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="E93">
+        <v>0.74630872483221489</v>
+      </c>
+      <c r="F93">
+        <v>0.75704697986577185</v>
+      </c>
+      <c r="G93">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="H93">
+        <v>0.75436241610738253</v>
+      </c>
+      <c r="I93">
+        <v>0.73288590604026849</v>
+      </c>
+      <c r="L93" t="s">
+        <v>142</v>
+      </c>
+      <c r="M93">
+        <v>0.51946308724832213</v>
+      </c>
+      <c r="N93">
+        <v>0.13020134228187891</v>
+      </c>
+      <c r="O93">
+        <v>6.6174496644295103E-2</v>
+      </c>
+      <c r="P93">
+        <v>7.3288590604025997E-3</v>
+      </c>
+      <c r="Q93">
+        <v>0.51946308724832213</v>
+      </c>
+      <c r="R93">
+        <v>0.65100671140939592</v>
+      </c>
+      <c r="S93">
+        <v>0.66174496644295311</v>
+      </c>
+      <c r="T93">
+        <v>0.73288590604026849</v>
+      </c>
+      <c r="U93">
+        <v>0.51946308724832213</v>
+      </c>
+      <c r="V93">
+        <v>0.59659542241813279</v>
+      </c>
+      <c r="W93">
+        <v>0.60012080905657106</v>
+      </c>
+      <c r="X93">
+        <v>0.61364582810354285</v>
+      </c>
+      <c r="Y93">
+        <v>0.51946308724832213</v>
+      </c>
+      <c r="Z93">
+        <v>0.57787472035794185</v>
+      </c>
+      <c r="AA93">
+        <v>0.57936188345584316</v>
+      </c>
+      <c r="AB93">
+        <v>0.58148419360656312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C94">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D94">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E94">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F94">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G94">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H94">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I94">
+        <v>0.51946308724832213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>0.55979169328825873</v>
+      </c>
+      <c r="C95">
+        <v>0.59588690162440094</v>
+      </c>
+      <c r="D95">
+        <v>0.61028218606613982</v>
+      </c>
+      <c r="E95">
+        <v>0.60399148339870223</v>
+      </c>
+      <c r="F95">
+        <v>0.61124668332199983</v>
+      </c>
+      <c r="G95">
+        <v>0.60820197102678586</v>
+      </c>
+      <c r="H95">
+        <v>0.612702768995806</v>
+      </c>
+      <c r="I95">
+        <v>0.59659542241813279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>0.57002531673800683</v>
+      </c>
+      <c r="C96">
+        <v>0.59805196024957741</v>
+      </c>
+      <c r="D96">
+        <v>0.61284670297351529</v>
+      </c>
+      <c r="E96">
+        <v>0.60910433225960969</v>
+      </c>
+      <c r="F96">
+        <v>0.61786621425965504</v>
+      </c>
+      <c r="G96">
+        <v>0.61217689478621029</v>
+      </c>
+      <c r="H96">
+        <v>0.61658085012701935</v>
+      </c>
+      <c r="I96">
+        <v>0.60012080905657106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <v>0.58679042507998858</v>
+      </c>
+      <c r="C97">
+        <v>0.61578727757778817</v>
+      </c>
+      <c r="D97">
+        <v>0.62790219206125064</v>
+      </c>
+      <c r="E97">
+        <v>0.62149470229321124</v>
+      </c>
+      <c r="F97">
+        <v>0.63163610694095595</v>
+      </c>
+      <c r="G97">
+        <v>0.62889645970843033</v>
+      </c>
+      <c r="H97">
+        <v>0.63031695040737312</v>
+      </c>
+      <c r="I97">
+        <v>0.61364582810354285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C98">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D98">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E98">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F98">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G98">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H98">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I98">
+        <v>0.51946308724832213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99">
+        <v>0.53382550335570467</v>
+      </c>
+      <c r="C99">
+        <v>0.57599552572706947</v>
+      </c>
+      <c r="D99">
+        <v>0.59035794183445189</v>
+      </c>
+      <c r="E99">
+        <v>0.58194630872483222</v>
+      </c>
+      <c r="F99">
+        <v>0.59178970917225948</v>
+      </c>
+      <c r="G99">
+        <v>0.59167785234899328</v>
+      </c>
+      <c r="H99">
+        <v>0.59281879194630882</v>
+      </c>
+      <c r="I99">
+        <v>0.57787472035794185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100">
+        <v>0.53819803984233516</v>
+      </c>
+      <c r="C100">
+        <v>0.57688611910088416</v>
+      </c>
+      <c r="D100">
+        <v>0.59139235112389466</v>
+      </c>
+      <c r="E100">
+        <v>0.58400394162139124</v>
+      </c>
+      <c r="F100">
+        <v>0.59458346649621829</v>
+      </c>
+      <c r="G100">
+        <v>0.59335943325876206</v>
+      </c>
+      <c r="H100">
+        <v>0.59440289762437415</v>
+      </c>
+      <c r="I100">
+        <v>0.57936188345584316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101">
+        <v>0.5412197115803431</v>
+      </c>
+      <c r="C101">
+        <v>0.58016658535577448</v>
+      </c>
+      <c r="D101">
+        <v>0.59393327625827308</v>
+      </c>
+      <c r="E101">
+        <v>0.58617770419910309</v>
+      </c>
+      <c r="F101">
+        <v>0.59699994785401356</v>
+      </c>
+      <c r="G101">
+        <v>0.5962181942003284</v>
+      </c>
+      <c r="H101">
+        <v>0.59661833304004386</v>
+      </c>
+      <c r="I101">
+        <v>0.58148419360656312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="C102">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="D102">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="E102">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="F102">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="G102">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="H102">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="I102">
+        <v>0.51946308724832213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103">
+        <v>0.63624161073825491</v>
+      </c>
+      <c r="C103">
+        <v>0.65369127516778525</v>
+      </c>
+      <c r="D103">
+        <v>0.66845637583892614</v>
+      </c>
+      <c r="E103">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="F103">
+        <v>0.66845637583892636</v>
+      </c>
+      <c r="G103">
+        <v>0.65637583892617446</v>
+      </c>
+      <c r="H103">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="I103">
+        <v>0.65100671140939592</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104">
+        <v>0.66711409395973154</v>
+      </c>
+      <c r="C104">
+        <v>0.66040268456375828</v>
+      </c>
+      <c r="D104">
+        <v>0.676510067114094</v>
+      </c>
+      <c r="E104">
+        <v>0.68456375838926165</v>
+      </c>
+      <c r="F104">
+        <v>0.68859060402684558</v>
+      </c>
+      <c r="G104">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="H104">
+        <v>0.68322147651006715</v>
+      </c>
+      <c r="I104">
+        <v>0.66174496644295311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105">
+        <v>0.75033557046979871</v>
+      </c>
+      <c r="C105">
+        <v>0.74765100671140938</v>
+      </c>
+      <c r="D105">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="E105">
+        <v>0.74630872483221489</v>
+      </c>
+      <c r="F105">
+        <v>0.75704697986577185</v>
+      </c>
+      <c r="G105">
+        <v>0.75302013422818792</v>
+      </c>
+      <c r="H105">
+        <v>0.75436241610738253</v>
+      </c>
+      <c r="I105">
+        <v>0.73288590604026849</v>
       </c>
     </row>
   </sheetData>
@@ -16224,10 +17949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAE7E8B-6D93-4171-9A24-226920DB92D8}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16238,8 +17963,8 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="36" t="s">
@@ -16253,19 +17978,19 @@
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="35" t="s">
         <v>62</v>
       </c>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="35" t="s">
         <v>82</v>
       </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
+      <c r="Q1" s="38"/>
       <c r="R1" s="36" t="s">
         <v>77</v>
       </c>
@@ -16278,9 +18003,15 @@
       <c r="W1" s="36"/>
       <c r="X1" s="36"/>
       <c r="Y1" s="36"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="Z1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
       <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
@@ -16353,8 +18084,20 @@
       <c r="Y2" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>105</v>
       </c>
@@ -16430,8 +18173,20 @@
       <c r="Y3" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>0.45906040268456377</v>
+      </c>
+      <c r="AA3">
+        <v>0.63624161073825491</v>
+      </c>
+      <c r="AB3">
+        <v>0.55979169328825873</v>
+      </c>
+      <c r="AC3">
+        <v>0.53382550335570467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>123</v>
       </c>
@@ -16507,8 +18262,20 @@
       <c r="Y4" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>0.54093959731543628</v>
+      </c>
+      <c r="AA4">
+        <v>0.65637583892617446</v>
+      </c>
+      <c r="AB4">
+        <v>0.60820197102678586</v>
+      </c>
+      <c r="AC4">
+        <v>0.59167785234899328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>110</v>
       </c>
@@ -16584,8 +18351,20 @@
       <c r="Y5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>0.53691275167785224</v>
+      </c>
+      <c r="AA5">
+        <v>0.66845637583892636</v>
+      </c>
+      <c r="AB5">
+        <v>0.61124668332199983</v>
+      </c>
+      <c r="AC5">
+        <v>0.59178970917225948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>107</v>
       </c>
@@ -16661,8 +18440,20 @@
       <c r="Y6" s="3">
         <v>8.4325396825389999E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>0.51543624161073831</v>
+      </c>
+      <c r="AA6">
+        <v>0.65369127516778525</v>
+      </c>
+      <c r="AB6">
+        <v>0.59588690162440094</v>
+      </c>
+      <c r="AC6">
+        <v>0.57599552572706947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>109</v>
       </c>
@@ -16738,8 +18529,20 @@
       <c r="Y7" s="19">
         <v>1.2896825396825E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="AA7">
+        <v>0.66845637583892625</v>
+      </c>
+      <c r="AB7">
+        <v>0.60399148339870223</v>
+      </c>
+      <c r="AC7">
+        <v>0.58194630872483222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>108</v>
       </c>
@@ -16815,8 +18618,20 @@
       <c r="Y8" s="3">
         <v>2.232142857142E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>0.53154362416107381</v>
+      </c>
+      <c r="AA8">
+        <v>0.66845637583892614</v>
+      </c>
+      <c r="AB8">
+        <v>0.61028218606613982</v>
+      </c>
+      <c r="AC8">
+        <v>0.59035794183445189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>124</v>
       </c>
@@ -16892,8 +18707,20 @@
       <c r="Y9" s="16">
         <v>1.1061507936507E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>0.53557046979865763</v>
+      </c>
+      <c r="AA9">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="AB9">
+        <v>0.612702768995806</v>
+      </c>
+      <c r="AC9">
+        <v>0.59281879194630882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>106</v>
       </c>
@@ -16969,9 +18796,22 @@
       <c r="Y10" s="6">
         <v>2.79017857142857E-5</v>
       </c>
+      <c r="Z10">
+        <v>0.51946308724832213</v>
+      </c>
+      <c r="AA10">
+        <v>0.65100671140939592</v>
+      </c>
+      <c r="AB10">
+        <v>0.59659542241813279</v>
+      </c>
+      <c r="AC10">
+        <v>0.57787472035794185</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:I1"/>

--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.0.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/SemEval-14/Laptop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE10B9-FF1C-434F-A08B-3D22BC5D9C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32028B5A-A8F0-A64E-B1CC-790BF07C585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{53722CFA-7A49-4FF3-BDD5-F566020460F3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{53722CFA-7A49-4FF3-BDD5-F566020460F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -818,6 +818,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,23 +1150,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901AC9F6-3F61-4D99-A2B8-59BBBDA487EB}">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A133" sqref="A133:I153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1224,7 @@
         <v>0.13392857142857101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>6.4642857142857099E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>4.0624999999999897E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>8.9910714285714004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1340,7 @@
         <v>6.20128259637188E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1369,7 @@
         <v>0.14764030612244899</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1398,7 @@
         <v>0.188162910997732</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>0.43137329931972701</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1456,7 @@
         <v>0.13392857142857101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1485,7 @@
         <v>0.134699200447888</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>0.149165714269199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1543,7 @@
         <v>0.20954750249840601</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>6.20128259637188E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +1601,7 @@
         <v>0.10618285856008999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>0.11208498761607801</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1644,7 +1659,7 @@
         <v>0.124035238160999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1673,7 +1688,7 @@
         <v>0.13392857142857101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1717,7 @@
         <v>0.25267857142857097</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1746,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>0.64017857142857104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1818,7 +1833,7 @@
         <v>0.16517857142857101</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1847,7 +1862,7 @@
         <v>7.9821428571428404E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1876,7 +1891,7 @@
         <v>5.1696428571428497E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +1920,7 @@
         <v>9.9464285714285002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>8.4059311224489799E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1978,7 @@
         <v>0.20072845804988601</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>0.255250850340136</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2021,7 +2036,7 @@
         <v>0.47979875283446699</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +2065,7 @@
         <v>0.16517857142857101</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2094,7 @@
         <v>0.175712254873687</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>0.19500466434716501</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2137,7 +2152,7 @@
         <v>0.25120559604237402</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2181,7 @@
         <v>8.4059311224489799E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2195,7 +2210,7 @@
         <v>0.13615000236205499</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2239,7 @@
         <v>0.144888812122071</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2253,7 +2268,7 @@
         <v>0.15641075916188299</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2297,7 @@
         <v>0.16517857142857101</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2311,7 +2326,7 @@
         <v>0.33482142857142799</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2340,7 +2355,7 @@
         <v>0.41607142857142798</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2369,7 +2384,7 @@
         <v>0.67589285714285696</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2413,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2427,7 +2442,7 @@
         <v>0.11874999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2456,7 +2471,7 @@
         <v>6.6428571428571295E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2485,7 +2500,7 @@
         <v>4.4821428571428498E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2529,7 @@
         <v>8.7321428571427995E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2543,7 +2558,7 @@
         <v>5.9107497165532798E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2572,7 +2587,7 @@
         <v>0.154928429705215</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2616,7 @@
         <v>0.21567460317460299</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2630,7 +2645,7 @@
         <v>0.42542517006802699</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2659,7 +2674,7 @@
         <v>0.11874999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2688,7 +2703,7 @@
         <v>0.13355087057064699</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2717,7 +2732,7 @@
         <v>0.15515346914820899</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2746,7 +2761,7 @@
         <v>0.20807565510929901</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2775,7 +2790,7 @@
         <v>5.9107497165532798E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2804,7 +2819,7 @@
         <v>0.10438819798752801</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2833,7 +2848,7 @@
         <v>0.113583285248623</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2862,7 +2877,7 @@
         <v>0.124304993836547</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2891,7 +2906,7 @@
         <v>0.11874999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2920,7 +2935,7 @@
         <v>0.253571428571428</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>0.34285714285714203</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2978,7 +2993,7 @@
         <v>0.62946428571428503</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3036,7 +3051,7 @@
         <v>2.76785714285714E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>1.60714285714285E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3094,7 +3109,7 @@
         <v>1.1339285714285699E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3123,7 +3138,7 @@
         <v>5.4642857142857002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3152,7 +3167,7 @@
         <v>1.1741071428571399E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3181,7 +3196,7 @@
         <v>3.5952380952380902E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3210,7 +3225,7 @@
         <v>4.9776785714285697E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3239,7 +3254,7 @@
         <v>0.248993409863945</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3268,7 +3283,7 @@
         <v>2.76785714285714E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3297,7 +3312,7 @@
         <v>3.06440114898732E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -3326,7 +3341,7 @@
         <v>3.6005070171984503E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3355,7 +3370,7 @@
         <v>8.3818193864826904E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3384,7 +3399,7 @@
         <v>1.1741071428571399E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3413,7 +3428,7 @@
         <v>2.1797619047619E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -3442,7 +3457,7 @@
         <v>2.3721867913832101E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3471,7 +3486,7 @@
         <v>3.1300105134237803E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -3500,7 +3515,7 @@
         <v>2.76785714285714E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -3529,7 +3544,7 @@
         <v>6.8750000000000006E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3558,7 +3573,7 @@
         <v>9.7321428571428503E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -3587,7 +3602,7 @@
         <v>0.41517857142857101</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -3645,7 +3660,7 @@
         <v>1.33928571428571E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3689,7 @@
         <v>7.4999999999999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3703,7 +3718,7 @@
         <v>6.9642857142856998E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3732,7 +3747,7 @@
         <v>4.5178571428571004E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3761,7 +3776,7 @@
         <v>3.7060657596370999E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3790,7 +3805,7 @@
         <v>1.4909297052154101E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3819,7 +3834,7 @@
         <v>2.5723497732426201E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3848,7 +3863,7 @@
         <v>0.20871421485260699</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3877,7 +3892,7 @@
         <v>1.33928571428571E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -3906,7 +3921,7 @@
         <v>1.30446865898958E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>1.6868626448180699E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3964,7 +3979,7 @@
         <v>5.97176539189542E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3993,7 +4008,7 @@
         <v>3.7060657596370999E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -4022,7 +4037,7 @@
         <v>8.4849064625850002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -4051,7 +4066,7 @@
         <v>1.00943649781341E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -4080,7 +4095,7 @@
         <v>1.6501841115532101E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -4109,7 +4124,7 @@
         <v>1.33928571428571E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -4138,7 +4153,7 @@
         <v>2.94642857142857E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4167,7 +4182,7 @@
         <v>5.3571428571428499E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -4196,7 +4211,7 @@
         <v>0.35892857142857099</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4225,7 +4240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4254,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4283,7 +4298,7 @@
         <v>1.785714285714E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -4312,7 +4327,7 @@
         <v>1.785714285714E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4341,7 +4356,7 @@
         <v>7.1428571428571393E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -4370,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4399,7 +4414,7 @@
         <v>1.116071428571E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4428,7 +4443,7 @@
         <v>1.0044642857142E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4457,7 +4472,7 @@
         <v>2.8645833333333002E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4486,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4515,7 +4530,7 @@
         <v>1.304181695024E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -4544,7 +4559,7 @@
         <v>4.1530685689799998E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -4573,7 +4588,7 @@
         <v>1.0354791817934999E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -4602,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -4631,7 +4646,7 @@
         <v>2.79017857142857E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4660,7 +4675,7 @@
         <v>1.7671130952380001E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -4689,7 +4704,7 @@
         <v>2.9116224340609999E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -4718,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -4747,7 +4762,7 @@
         <v>8.928571428571E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -4776,7 +4791,7 @@
         <v>1.7857142857142E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -4805,7 +4820,7 @@
         <v>7.1428571428571001E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4834,7 +4849,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -4863,7 +4878,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -4892,7 +4907,7 @@
         <v>0.13020134228187891</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -4921,7 +4936,7 @@
         <v>6.6174496644295103E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -4950,7 +4965,7 @@
         <v>7.3288590604025997E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -4979,7 +4994,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -5008,7 +5023,7 @@
         <v>0.65100671140939592</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -5037,7 +5052,7 @@
         <v>0.66174496644295311</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5066,7 +5081,7 @@
         <v>0.73288590604026849</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5095,7 +5110,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -5124,7 +5139,7 @@
         <v>0.59659542241813279</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -5153,7 +5168,7 @@
         <v>0.60012080905657106</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5182,7 +5197,7 @@
         <v>0.61364582810354285</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -5211,7 +5226,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -5240,7 +5255,7 @@
         <v>0.57787472035794185</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>0.57936188345584316</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -5298,7 +5313,7 @@
         <v>0.58148419360656312</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -5327,7 +5342,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -5356,7 +5371,7 @@
         <v>0.65100671140939592</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -5385,7 +5400,7 @@
         <v>0.66174496644295311</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -6623,48 +6638,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBECD57-414E-4FBB-BE4B-CF0CB17B43F6}">
   <dimension ref="A1:CF105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S95" sqref="S95"/>
+    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="61" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="84" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="61" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="84" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6777,7 +6792,7 @@
       <c r="CE1" s="34"/>
       <c r="CF1" s="34"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7025,7 +7040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -7273,7 +7288,7 @@
         <v>8.3705357142857103E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -7521,7 +7536,7 @@
         <v>8.9905753968249995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -7769,7 +7784,7 @@
         <v>3.6458333333330001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -8017,7 +8032,7 @@
         <v>1.4989016439909001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -8265,7 +8280,7 @@
         <v>4.2517006802720997E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -8513,7 +8528,7 @@
         <v>1.4349489795910001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -8761,7 +8776,7 @@
         <v>1.1433531746030999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -9009,7 +9024,7 @@
         <v>1.7671130952380001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -9039,7 +9054,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -9069,7 +9084,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -9099,7 +9114,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9108,7 +9123,7 @@
       <c r="I14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -9176,7 +9191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -9244,7 +9259,7 @@
         <v>2.9149187452758799E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9312,7 +9327,7 @@
         <v>5.0922074087571503E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -9380,7 +9395,7 @@
         <v>8.8872756046863205E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -9448,7 +9463,7 @@
         <v>5.7376316846182898E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -9516,7 +9531,7 @@
         <v>4.0887394888510897E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -9584,7 +9599,7 @@
         <v>6.7499412438586495E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -9652,7 +9667,7 @@
         <v>5.1224554752456498E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -9720,7 +9735,7 @@
         <v>0.144888812122071</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -9749,7 +9764,7 @@
         <v>0.19500466434716501</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -9778,7 +9793,7 @@
         <v>8.4059311224489799E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -9808,7 +9823,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -9838,7 +9853,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -9847,7 +9862,7 @@
       <c r="I28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -9915,7 +9930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -9983,7 +9998,7 @@
         <v>0.11145071359396901</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -10051,7 +10066,7 @@
         <v>0.103800234462171</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -10119,7 +10134,7 @@
         <v>0.13613235766363399</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -10187,7 +10202,7 @@
         <v>0.12512930779950801</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -10255,7 +10270,7 @@
         <v>9.74419327916351E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -10323,7 +10338,7 @@
         <v>0.115198548516628</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -10391,7 +10406,7 @@
         <v>0.117855270084224</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -10459,7 +10474,7 @@
         <v>0.113583285248623</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -10489,7 +10504,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -10519,7 +10534,7 @@
       </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -10548,7 +10563,7 @@
         <v>0.10438819798752801</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -10577,7 +10592,7 @@
         <v>0.113583285248623</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -10586,7 +10601,7 @@
       <c r="I42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -10654,7 +10669,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -10722,7 +10737,7 @@
         <v>6.0760936318971998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -10790,7 +10805,7 @@
         <v>2.5955156368102001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -10858,7 +10873,7 @@
         <v>5.3632310563114004E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -10926,7 +10941,7 @@
         <v>7.5616496598638998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -10994,7 +11009,7 @@
         <v>1.5567129629629E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -11062,7 +11077,7 @@
         <v>6.0529513888887996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -11130,7 +11145,7 @@
         <v>4.2584856859410004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -11198,7 +11213,7 @@
         <v>2.3721867913832101E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -11227,7 +11242,7 @@
         <v>3.6005070171984503E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -11256,7 +11271,7 @@
         <v>1.1741071428571399E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -11285,7 +11300,7 @@
         <v>2.1797619047619E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -11314,7 +11329,7 @@
         <v>2.3721867913832101E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -11322,7 +11337,7 @@
       <c r="F56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -11390,7 +11405,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -11458,7 +11473,7 @@
         <v>1.31421544312169E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -11526,7 +11541,7 @@
         <v>5.1103375377928003E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -11594,7 +11609,7 @@
         <v>3.6970435495626E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -11662,7 +11677,7 @@
         <v>4.0974977954143996E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -11730,7 +11745,7 @@
         <v>4.0241621450166996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -11798,7 +11813,7 @@
         <v>4.3394097222222002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -11866,7 +11881,7 @@
         <v>4.1183626228268998E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -11934,7 +11949,7 @@
         <v>1.00943649781341E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -11963,7 +11978,7 @@
         <v>1.6868626448180699E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -11992,7 +12007,7 @@
         <v>3.7060657596370999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -12021,7 +12036,7 @@
         <v>8.4849064625850002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -12050,7 +12065,7 @@
         <v>1.00943649781341E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -12058,7 +12073,7 @@
       <c r="F70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -12126,7 +12141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -12194,7 +12209,7 @@
         <v>8.3705357142857103E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -12262,7 +12277,7 @@
         <v>8.9905753968249995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -12330,7 +12345,7 @@
         <v>3.6458333333330001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -12398,7 +12413,7 @@
         <v>1.4989016439909001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -12466,7 +12481,7 @@
         <v>4.2517006802720997E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -12534,7 +12549,7 @@
         <v>1.4349489795910001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -12602,7 +12617,7 @@
         <v>1.1433531746030999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -12670,7 +12685,7 @@
         <v>1.7671130952380001E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -12699,7 +12714,7 @@
         <v>4.1530685689799998E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -12728,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -12757,7 +12772,7 @@
         <v>2.79017857142857E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -12786,7 +12801,7 @@
         <v>1.7671130952380001E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -12866,7 +12881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -12946,7 +12961,7 @@
         <v>0.5412197115803431</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -13026,7 +13041,7 @@
         <v>0.58016658535577448</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -13106,7 +13121,7 @@
         <v>0.59393327625827308</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -13186,7 +13201,7 @@
         <v>0.58617770419910309</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -13266,7 +13281,7 @@
         <v>0.59699994785401356</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -13346,7 +13361,7 @@
         <v>0.5962181942003284</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -13426,7 +13441,7 @@
         <v>0.59661833304004386</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -13506,7 +13521,7 @@
         <v>0.58148419360656312</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -13535,7 +13550,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -13564,7 +13579,7 @@
         <v>0.59659542241813279</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -13593,7 +13608,7 @@
         <v>0.60012080905657106</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -13622,7 +13637,7 @@
         <v>0.61364582810354285</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -13651,7 +13666,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -13680,7 +13695,7 @@
         <v>0.57787472035794185</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -13709,7 +13724,7 @@
         <v>0.57936188345584316</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -13738,7 +13753,7 @@
         <v>0.58148419360656312</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -13767,7 +13782,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -13796,7 +13811,7 @@
         <v>0.65100671140939592</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -13825,7 +13840,7 @@
         <v>0.66174496644295311</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -17951,19 +17966,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAE7E8B-6D93-4171-9A24-226920DB92D8}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="2" customWidth="1"/>
-    <col min="3" max="25" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
+    <col min="3" max="25" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>125</v>
       </c>
@@ -18004,13 +18019,13 @@
       <c r="X1" s="36"/>
       <c r="Y1" s="36"/>
       <c r="Z1" s="35" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AA1" s="36"/>
       <c r="AB1" s="36"/>
       <c r="AC1" s="36"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="12" t="s">
         <v>93</v>
@@ -18097,7 +18112,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>105</v>
       </c>
@@ -18173,20 +18188,20 @@
       <c r="Y3" s="30">
         <v>0</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="39">
         <v>0.45906040268456377</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="39">
         <v>0.63624161073825491</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="39">
         <v>0.55979169328825873</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="39">
         <v>0.53382550335570467</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>123</v>
       </c>
@@ -18262,20 +18277,20 @@
       <c r="Y4" s="25">
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="43">
         <v>0.54093959731543628</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="40">
         <v>0.65637583892617446</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="40">
         <v>0.60820197102678586</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="40">
         <v>0.59167785234899328</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>110</v>
       </c>
@@ -18351,20 +18366,20 @@
       <c r="Y5" s="3">
         <v>0</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="16">
         <v>0.53691275167785224</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="16">
         <v>0.66845637583892636</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="16">
         <v>0.61124668332199983</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="16">
         <v>0.59178970917225948</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>107</v>
       </c>
@@ -18440,20 +18455,20 @@
       <c r="Y6" s="3">
         <v>8.4325396825389999E-4</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="41">
         <v>0.51543624161073831</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="41">
         <v>0.65369127516778525</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="41">
         <v>0.59588690162440094</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="41">
         <v>0.57599552572706947</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>109</v>
       </c>
@@ -18529,20 +18544,20 @@
       <c r="Y7" s="19">
         <v>1.2896825396825E-3</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="41">
         <v>0.51677852348993292</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="16">
         <v>0.66845637583892625</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="41">
         <v>0.60399148339870223</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="41">
         <v>0.58194630872483222</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>108</v>
       </c>
@@ -18618,20 +18633,20 @@
       <c r="Y8" s="3">
         <v>2.232142857142E-4</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="41">
         <v>0.53154362416107381</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="16">
         <v>0.66845637583892614</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="41">
         <v>0.61028218606613982</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="41">
         <v>0.59035794183445189</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>124</v>
       </c>
@@ -18707,20 +18722,20 @@
       <c r="Y9" s="16">
         <v>1.1061507936507E-3</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="41">
         <v>0.53557046979865763</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="19">
         <v>0.67114093959731547</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="19">
         <v>0.612702768995806</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="19">
         <v>0.59281879194630882</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>106</v>
       </c>
@@ -18796,16 +18811,16 @@
       <c r="Y10" s="6">
         <v>2.79017857142857E-5</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="42">
         <v>0.51946308724832213</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="42">
         <v>0.65100671140939592</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="42">
         <v>0.59659542241813279</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="42">
         <v>0.57787472035794185</v>
       </c>
     </row>
@@ -18821,7 +18836,7 @@
     <mergeCell ref="R1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B10">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18830,18 +18845,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:Y9 B4:Y4">
-    <cfRule type="colorScale" priority="625">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:Y10 B5:Y8 B3:Y3">
-    <cfRule type="colorScale" priority="891">
+  <conditionalFormatting sqref="B9:AC9 B4:AC4">
+    <cfRule type="colorScale" priority="629">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:AC10 B5:AC8 B3:AC3">
+    <cfRule type="colorScale" priority="895">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18851,7 +18866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18861,7 +18876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18871,7 +18886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18881,7 +18896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F10">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18891,7 +18906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G10">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18901,7 +18916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18911,7 +18926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I10">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18921,7 +18936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J10">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18931,7 +18946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K10">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18941,7 +18956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L10">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18951,7 +18966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M10">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18961,7 +18976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N10">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18971,7 +18986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O10">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18981,7 +18996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P10">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18991,7 +19006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q10">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19001,7 +19016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R10">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19011,7 +19026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S10">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19021,7 +19036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T10">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19031,7 +19046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U10">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19041,7 +19056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V10">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19051,7 +19066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W10">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19061,7 +19076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X10">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19071,6 +19086,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AA10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AC10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.0.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/SemEval-14/Laptop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32028B5A-A8F0-A64E-B1CC-790BF07C585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58DE42E-5C84-4576-8C86-C85E5959EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{53722CFA-7A49-4FF3-BDD5-F566020460F3}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21210" windowHeight="12990" activeTab="2" xr2:uid="{53722CFA-7A49-4FF3-BDD5-F566020460F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="160">
   <si>
     <t>metric</t>
   </si>
@@ -469,6 +469,57 @@
   <si>
     <t>all.cat</t>
   </si>
+  <si>
+    <t>bert-e2e-absa</t>
+  </si>
+  <si>
+    <t>BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>arb_Arab.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>deu_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>fra_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>zho_Hans.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>spa_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>arabic.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>german.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>french.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>farsi.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>chinese.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>spanish.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>all.BERT-E2E-ABSA</t>
+  </si>
 </sst>
 </file>
 
@@ -707,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -804,6 +855,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,21 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,25 +1187,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901AC9F6-3F61-4D99-A2B8-59BBBDA487EB}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:I153"/>
+    <sheetView topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="70.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1263,7 @@
         <v>0.13392857142857101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1292,7 @@
         <v>6.4642857142857099E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1321,7 @@
         <v>4.0624999999999897E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1350,7 @@
         <v>8.9910714285714004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1379,7 @@
         <v>6.20128259637188E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1408,7 @@
         <v>0.14764030612244899</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1437,7 @@
         <v>0.188162910997732</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1466,7 @@
         <v>0.43137329931972701</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1495,7 @@
         <v>0.13392857142857101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1524,7 @@
         <v>0.134699200447888</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1553,7 @@
         <v>0.149165714269199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1543,7 +1582,7 @@
         <v>0.20954750249840601</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +1611,7 @@
         <v>6.20128259637188E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1601,7 +1640,7 @@
         <v>0.10618285856008999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1630,7 +1669,7 @@
         <v>0.11208498761607801</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1698,7 @@
         <v>0.124035238160999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1688,7 +1727,7 @@
         <v>0.13392857142857101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1717,7 +1756,7 @@
         <v>0.25267857142857097</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1746,7 +1785,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +1814,7 @@
         <v>0.64017857142857104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +1872,7 @@
         <v>0.16517857142857101</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1862,7 +1901,7 @@
         <v>7.9821428571428404E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1930,7 @@
         <v>5.1696428571428497E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1959,7 @@
         <v>9.9464285714285002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1988,7 @@
         <v>8.4059311224489799E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +2017,7 @@
         <v>0.20072845804988601</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2046,7 @@
         <v>0.255250850340136</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2036,7 +2075,7 @@
         <v>0.47979875283446699</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2104,7 @@
         <v>0.16517857142857101</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2094,7 +2133,7 @@
         <v>0.175712254873687</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2123,7 +2162,7 @@
         <v>0.19500466434716501</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2152,7 +2191,7 @@
         <v>0.25120559604237402</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2181,7 +2220,7 @@
         <v>8.4059311224489799E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2210,7 +2249,7 @@
         <v>0.13615000236205499</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +2278,7 @@
         <v>0.144888812122071</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2268,7 +2307,7 @@
         <v>0.15641075916188299</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +2336,7 @@
         <v>0.16517857142857101</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2326,7 +2365,7 @@
         <v>0.33482142857142799</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2355,7 +2394,7 @@
         <v>0.41607142857142798</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2384,7 +2423,7 @@
         <v>0.67589285714285696</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2442,7 +2481,7 @@
         <v>0.11874999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +2510,7 @@
         <v>6.6428571428571295E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2539,7 @@
         <v>4.4821428571428498E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2529,7 +2568,7 @@
         <v>8.7321428571427995E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2558,7 +2597,7 @@
         <v>5.9107497165532798E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2626,7 @@
         <v>0.154928429705215</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2616,7 +2655,7 @@
         <v>0.21567460317460299</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2645,7 +2684,7 @@
         <v>0.42542517006802699</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2713,7 @@
         <v>0.11874999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2703,7 +2742,7 @@
         <v>0.13355087057064699</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2732,7 +2771,7 @@
         <v>0.15515346914820899</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2761,7 +2800,7 @@
         <v>0.20807565510929901</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2790,7 +2829,7 @@
         <v>5.9107497165532798E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2819,7 +2858,7 @@
         <v>0.10438819798752801</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2848,7 +2887,7 @@
         <v>0.113583285248623</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2877,7 +2916,7 @@
         <v>0.124304993836547</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2906,7 +2945,7 @@
         <v>0.11874999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2935,7 +2974,7 @@
         <v>0.253571428571428</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2964,7 +3003,7 @@
         <v>0.34285714285714203</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2993,7 +3032,7 @@
         <v>0.62946428571428503</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3051,7 +3090,7 @@
         <v>2.76785714285714E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -3080,7 +3119,7 @@
         <v>1.60714285714285E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3109,7 +3148,7 @@
         <v>1.1339285714285699E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3177,7 @@
         <v>5.4642857142857002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +3206,7 @@
         <v>1.1741071428571399E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3196,7 +3235,7 @@
         <v>3.5952380952380902E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3225,7 +3264,7 @@
         <v>4.9776785714285697E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3293,7 @@
         <v>0.248993409863945</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3283,7 +3322,7 @@
         <v>2.76785714285714E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3312,7 +3351,7 @@
         <v>3.06440114898732E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -3341,7 +3380,7 @@
         <v>3.6005070171984503E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3370,7 +3409,7 @@
         <v>8.3818193864826904E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3399,7 +3438,7 @@
         <v>1.1741071428571399E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3428,7 +3467,7 @@
         <v>2.1797619047619E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -3457,7 +3496,7 @@
         <v>2.3721867913832101E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3486,7 +3525,7 @@
         <v>3.1300105134237803E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -3515,7 +3554,7 @@
         <v>2.76785714285714E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -3544,7 +3583,7 @@
         <v>6.8750000000000006E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3573,7 +3612,7 @@
         <v>9.7321428571428503E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -3602,7 +3641,7 @@
         <v>0.41517857142857101</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3631,7 +3670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -3660,7 +3699,7 @@
         <v>1.33928571428571E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3689,7 +3728,7 @@
         <v>7.4999999999999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3718,7 +3757,7 @@
         <v>6.9642857142856998E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3747,7 +3786,7 @@
         <v>4.5178571428571004E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +3815,7 @@
         <v>3.7060657596370999E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3805,7 +3844,7 @@
         <v>1.4909297052154101E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3834,7 +3873,7 @@
         <v>2.5723497732426201E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3863,7 +3902,7 @@
         <v>0.20871421485260699</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3892,7 +3931,7 @@
         <v>1.33928571428571E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -3921,7 +3960,7 @@
         <v>1.30446865898958E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +3989,7 @@
         <v>1.6868626448180699E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3979,7 +4018,7 @@
         <v>5.97176539189542E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -4008,7 +4047,7 @@
         <v>3.7060657596370999E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -4037,7 +4076,7 @@
         <v>8.4849064625850002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -4066,7 +4105,7 @@
         <v>1.00943649781341E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -4095,7 +4134,7 @@
         <v>1.6501841115532101E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -4124,7 +4163,7 @@
         <v>1.33928571428571E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -4153,7 +4192,7 @@
         <v>2.94642857142857E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4182,7 +4221,7 @@
         <v>5.3571428571428499E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -4211,7 +4250,7 @@
         <v>0.35892857142857099</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4240,7 +4279,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4269,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4298,7 +4337,7 @@
         <v>1.785714285714E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -4327,7 +4366,7 @@
         <v>1.785714285714E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4356,7 +4395,7 @@
         <v>7.1428571428571393E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -4385,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4414,7 +4453,7 @@
         <v>1.116071428571E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4443,7 +4482,7 @@
         <v>1.0044642857142E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4472,7 +4511,7 @@
         <v>2.8645833333333002E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4501,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4569,7 @@
         <v>1.304181695024E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -4559,7 +4598,7 @@
         <v>4.1530685689799998E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -4588,7 +4627,7 @@
         <v>1.0354791817934999E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -4617,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -4646,7 +4685,7 @@
         <v>2.79017857142857E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4675,7 +4714,7 @@
         <v>1.7671130952380001E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -4704,7 +4743,7 @@
         <v>2.9116224340609999E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -4733,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -4762,7 +4801,7 @@
         <v>8.928571428571E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -4791,7 +4830,7 @@
         <v>1.7857142857142E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -4820,7 +4859,7 @@
         <v>7.1428571428571001E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4888,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -4878,7 +4917,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -4907,7 +4946,7 @@
         <v>0.13020134228187891</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -4936,7 +4975,7 @@
         <v>6.6174496644295103E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -4965,7 +5004,7 @@
         <v>7.3288590604025997E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -4994,7 +5033,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -5023,7 +5062,7 @@
         <v>0.65100671140939592</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -5052,7 +5091,7 @@
         <v>0.66174496644295311</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5081,7 +5120,7 @@
         <v>0.73288590604026849</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5110,7 +5149,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -5139,7 +5178,7 @@
         <v>0.59659542241813279</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -5168,7 +5207,7 @@
         <v>0.60012080905657106</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5197,7 +5236,7 @@
         <v>0.61364582810354285</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -5226,7 +5265,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -5255,7 +5294,7 @@
         <v>0.57787472035794185</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -5284,7 +5323,7 @@
         <v>0.57936188345584316</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -5313,7 +5352,7 @@
         <v>0.58148419360656312</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -5342,7 +5381,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -5371,7 +5410,7 @@
         <v>0.65100671140939592</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -5400,7 +5439,7 @@
         <v>0.66174496644295311</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -5427,6 +5466,615 @@
       </c>
       <c r="I153">
         <v>0.73288590604026849</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>144</v>
+      </c>
+      <c r="C155" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" t="s">
+        <v>146</v>
+      </c>
+      <c r="E155" t="s">
+        <v>147</v>
+      </c>
+      <c r="F155" t="s">
+        <v>148</v>
+      </c>
+      <c r="G155" t="s">
+        <v>149</v>
+      </c>
+      <c r="H155" t="s">
+        <v>150</v>
+      </c>
+      <c r="I155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="C156">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="D156">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="E156">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="F156">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="G156">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="H156">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="I156">
+        <v>0.60276497695852527</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>0.26322580645161292</v>
+      </c>
+      <c r="C157">
+        <v>0.25253456221198162</v>
+      </c>
+      <c r="D157">
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="E157">
+        <v>0.25456221198156681</v>
+      </c>
+      <c r="F157">
+        <v>0.25622119815668198</v>
+      </c>
+      <c r="G157">
+        <v>0.25548387096774189</v>
+      </c>
+      <c r="H157">
+        <v>0.25658986175115212</v>
+      </c>
+      <c r="I157">
+        <v>0.25069124423963141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>0.16027649769585259</v>
+      </c>
+      <c r="C158">
+        <v>0.15281105990783411</v>
+      </c>
+      <c r="D158">
+        <v>0.15594470046082951</v>
+      </c>
+      <c r="E158">
+        <v>0.15437788018433191</v>
+      </c>
+      <c r="F158">
+        <v>0.15456221198156689</v>
+      </c>
+      <c r="G158">
+        <v>0.15502304147465451</v>
+      </c>
+      <c r="H158">
+        <v>0.1557603686635945</v>
+      </c>
+      <c r="I158">
+        <v>0.14986175115207381</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="C159">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="D159">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="E159">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="F159">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="G159">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="H159">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="I159">
+        <v>1.9308755760368661E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>0.38372284397630019</v>
+      </c>
+      <c r="C160">
+        <v>0.3765415843756858</v>
+      </c>
+      <c r="D160">
+        <v>0.37427583936800529</v>
+      </c>
+      <c r="E160">
+        <v>0.38515141540487158</v>
+      </c>
+      <c r="F160">
+        <v>0.37765525565064728</v>
+      </c>
+      <c r="G160">
+        <v>0.37458305903006361</v>
+      </c>
+      <c r="H160">
+        <v>0.37746324336186088</v>
+      </c>
+      <c r="I160">
+        <v>0.3741222295369761</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>0.64865262233925836</v>
+      </c>
+      <c r="C161">
+        <v>0.6237173579109061</v>
+      </c>
+      <c r="D161">
+        <v>0.63361531709457974</v>
+      </c>
+      <c r="E161">
+        <v>0.62901689708141317</v>
+      </c>
+      <c r="F161">
+        <v>0.63142857142857145</v>
+      </c>
+      <c r="G161">
+        <v>0.63472350230414742</v>
+      </c>
+      <c r="H161">
+        <v>0.6290520078999341</v>
+      </c>
+      <c r="I161">
+        <v>0.61943932411674352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>0.75745666008338819</v>
+      </c>
+      <c r="C162">
+        <v>0.72706824665350012</v>
+      </c>
+      <c r="D162">
+        <v>0.74426267281106007</v>
+      </c>
+      <c r="E162">
+        <v>0.73385780118499011</v>
+      </c>
+      <c r="F162">
+        <v>0.73449308755760367</v>
+      </c>
+      <c r="G162">
+        <v>0.73802062760588094</v>
+      </c>
+      <c r="H162">
+        <v>0.73685099846390167</v>
+      </c>
+      <c r="I162">
+        <v>0.71484200131665576</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="C163">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="D163">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="E163">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="F163">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="G163">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="H163">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="I163">
+        <v>0.86081852095676969</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="C164">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="D164">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="E164">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="F164">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="G164">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="H164">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="I164">
+        <v>0.60276497695852527</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165">
+        <v>0.62346939903204812</v>
+      </c>
+      <c r="C165">
+        <v>0.60387398727080899</v>
+      </c>
+      <c r="D165">
+        <v>0.60959800209431514</v>
+      </c>
+      <c r="E165">
+        <v>0.61122936171134368</v>
+      </c>
+      <c r="F165">
+        <v>0.60921670361655456</v>
+      </c>
+      <c r="G165">
+        <v>0.61015886297909738</v>
+      </c>
+      <c r="H165">
+        <v>0.60920417989958642</v>
+      </c>
+      <c r="I165">
+        <v>0.60248234736646322</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>0.66641052317498783</v>
+      </c>
+      <c r="C166">
+        <v>0.64429408880993577</v>
+      </c>
+      <c r="D166">
+        <v>0.65218308403993286</v>
+      </c>
+      <c r="E166">
+        <v>0.65221012031650827</v>
+      </c>
+      <c r="F166">
+        <v>0.64937557922327394</v>
+      </c>
+      <c r="G166">
+        <v>0.6510658638061525</v>
+      </c>
+      <c r="H166">
+        <v>0.65162069976123593</v>
+      </c>
+      <c r="I166">
+        <v>0.63998291739895707</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167">
+        <v>0.70245806042023973</v>
+      </c>
+      <c r="C167">
+        <v>0.69021119104712159</v>
+      </c>
+      <c r="D167">
+        <v>0.69320114285223799</v>
+      </c>
+      <c r="E167">
+        <v>0.69611834294767871</v>
+      </c>
+      <c r="F167">
+        <v>0.69288794872033677</v>
+      </c>
+      <c r="G167">
+        <v>0.69369007317415776</v>
+      </c>
+      <c r="H167">
+        <v>0.69407528689100739</v>
+      </c>
+      <c r="I167">
+        <v>0.68992037808426931</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <v>0.38372284397630019</v>
+      </c>
+      <c r="C168">
+        <v>0.3765415843756858</v>
+      </c>
+      <c r="D168">
+        <v>0.37427583936800529</v>
+      </c>
+      <c r="E168">
+        <v>0.38515141540487158</v>
+      </c>
+      <c r="F168">
+        <v>0.37765525565064728</v>
+      </c>
+      <c r="G168">
+        <v>0.37458305903006361</v>
+      </c>
+      <c r="H168">
+        <v>0.37746324336186088</v>
+      </c>
+      <c r="I168">
+        <v>0.3741222295369761</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169">
+        <v>0.56712307073366985</v>
+      </c>
+      <c r="C169">
+        <v>0.54852680857289149</v>
+      </c>
+      <c r="D169">
+        <v>0.55260794748006725</v>
+      </c>
+      <c r="E169">
+        <v>0.55606427839953176</v>
+      </c>
+      <c r="F169">
+        <v>0.55329260844122585</v>
+      </c>
+      <c r="G169">
+        <v>0.5526340428644575</v>
+      </c>
+      <c r="H169">
+        <v>0.55478922536756636</v>
+      </c>
+      <c r="I169">
+        <v>0.54630731109648167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170">
+        <v>0.59401565966888548</v>
+      </c>
+      <c r="C170">
+        <v>0.57364163801721413</v>
+      </c>
+      <c r="D170">
+        <v>0.57884888937653911</v>
+      </c>
+      <c r="E170">
+        <v>0.58163847438617022</v>
+      </c>
+      <c r="F170">
+        <v>0.57822331638748692</v>
+      </c>
+      <c r="G170">
+        <v>0.57930657352546755</v>
+      </c>
+      <c r="H170">
+        <v>0.58148140223831468</v>
+      </c>
+      <c r="I170">
+        <v>0.57012608676343035</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171">
+        <v>0.61119020288271897</v>
+      </c>
+      <c r="C171">
+        <v>0.59461986760085672</v>
+      </c>
+      <c r="D171">
+        <v>0.59828756346826872</v>
+      </c>
+      <c r="E171">
+        <v>0.60173608523731292</v>
+      </c>
+      <c r="F171">
+        <v>0.59818171753223348</v>
+      </c>
+      <c r="G171">
+        <v>0.59900301995488259</v>
+      </c>
+      <c r="H171">
+        <v>0.60076298512755844</v>
+      </c>
+      <c r="I171">
+        <v>0.59298580583808636</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="C172">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="D172">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="E172">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="F172">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="G172">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="H172">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="I172">
+        <v>0.60276497695852527</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173">
+        <v>0.81198156682027667</v>
+      </c>
+      <c r="C173">
+        <v>0.79170506912442407</v>
+      </c>
+      <c r="D173">
+        <v>0.80552995391705073</v>
+      </c>
+      <c r="E173">
+        <v>0.79354838709677422</v>
+      </c>
+      <c r="F173">
+        <v>0.79631336405529962</v>
+      </c>
+      <c r="G173">
+        <v>0.80092165898617507</v>
+      </c>
+      <c r="H173">
+        <v>0.79170506912442407</v>
+      </c>
+      <c r="I173">
+        <v>0.79170506912442407</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174">
+        <v>0.88847926267281108</v>
+      </c>
+      <c r="C174">
+        <v>0.86728110599078345</v>
+      </c>
+      <c r="D174">
+        <v>0.88110599078341012</v>
+      </c>
+      <c r="E174">
+        <v>0.86912442396313361</v>
+      </c>
+      <c r="F174">
+        <v>0.87004608294930874</v>
+      </c>
+      <c r="G174">
+        <v>0.87004608294930874</v>
+      </c>
+      <c r="H174">
+        <v>0.86820276497695859</v>
+      </c>
+      <c r="I174">
+        <v>0.86175115207373276</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="C175">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="D175">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="E175">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F175">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="G175">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="H175">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="I175">
+        <v>0.93548387096774199</v>
       </c>
     </row>
   </sheetData>
@@ -6636,50 +7284,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBECD57-414E-4FBB-BE4B-CF0CB17B43F6}">
-  <dimension ref="A1:CF105"/>
+  <dimension ref="A1:CF128"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView topLeftCell="A84" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108:AF116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="61" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="84" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="61" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="84" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6707,92 +7355,92 @@
       <c r="I1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34" t="s">
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34" t="s">
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34" t="s">
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="34"/>
-      <c r="CE1" s="34"/>
-      <c r="CF1" s="34"/>
-    </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="35"/>
+      <c r="CC1" s="35"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="35"/>
+      <c r="CF1" s="35"/>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7040,7 +7688,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -7288,7 +7936,7 @@
         <v>8.3705357142857103E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -7536,7 +8184,7 @@
         <v>8.9905753968249995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -7784,7 +8432,7 @@
         <v>3.6458333333330001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -8032,7 +8680,7 @@
         <v>1.4989016439909001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -8280,7 +8928,7 @@
         <v>4.2517006802720997E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -8528,7 +9176,7 @@
         <v>1.4349489795910001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -8776,7 +9424,7 @@
         <v>1.1433531746030999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -9024,7 +9672,7 @@
         <v>1.7671130952380001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -9054,7 +9702,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -9084,7 +9732,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -9114,7 +9762,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9123,7 +9771,7 @@
       <c r="I14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -9191,7 +9839,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -9259,7 +9907,7 @@
         <v>2.9149187452758799E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9327,7 +9975,7 @@
         <v>5.0922074087571503E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -9395,7 +10043,7 @@
         <v>8.8872756046863205E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -9463,7 +10111,7 @@
         <v>5.7376316846182898E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -9531,7 +10179,7 @@
         <v>4.0887394888510897E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -9599,7 +10247,7 @@
         <v>6.7499412438586495E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -9667,7 +10315,7 @@
         <v>5.1224554752456498E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -9735,7 +10383,7 @@
         <v>0.144888812122071</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -9764,7 +10412,7 @@
         <v>0.19500466434716501</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -9793,7 +10441,7 @@
         <v>8.4059311224489799E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -9823,7 +10471,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -9853,7 +10501,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -9862,7 +10510,7 @@
       <c r="I28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -9930,7 +10578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -9998,7 +10646,7 @@
         <v>0.11145071359396901</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -10066,7 +10714,7 @@
         <v>0.103800234462171</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -10134,7 +10782,7 @@
         <v>0.13613235766363399</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -10202,7 +10850,7 @@
         <v>0.12512930779950801</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -10270,7 +10918,7 @@
         <v>9.74419327916351E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -10338,7 +10986,7 @@
         <v>0.115198548516628</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -10406,7 +11054,7 @@
         <v>0.117855270084224</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -10474,7 +11122,7 @@
         <v>0.113583285248623</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -10504,7 +11152,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -10534,7 +11182,7 @@
       </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -10563,7 +11211,7 @@
         <v>0.10438819798752801</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -10592,7 +11240,7 @@
         <v>0.113583285248623</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -10601,7 +11249,7 @@
       <c r="I42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -10669,7 +11317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -10737,7 +11385,7 @@
         <v>6.0760936318971998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -10805,7 +11453,7 @@
         <v>2.5955156368102001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -10873,7 +11521,7 @@
         <v>5.3632310563114004E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -10941,7 +11589,7 @@
         <v>7.5616496598638998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -11009,7 +11657,7 @@
         <v>1.5567129629629E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -11077,7 +11725,7 @@
         <v>6.0529513888887996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -11145,7 +11793,7 @@
         <v>4.2584856859410004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -11213,7 +11861,7 @@
         <v>2.3721867913832101E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -11242,7 +11890,7 @@
         <v>3.6005070171984503E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -11271,7 +11919,7 @@
         <v>1.1741071428571399E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -11300,7 +11948,7 @@
         <v>2.1797619047619E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -11329,7 +11977,7 @@
         <v>2.3721867913832101E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -11337,7 +11985,7 @@
       <c r="F56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -11405,7 +12053,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -11473,7 +12121,7 @@
         <v>1.31421544312169E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -11541,7 +12189,7 @@
         <v>5.1103375377928003E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -11609,7 +12257,7 @@
         <v>3.6970435495626E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -11677,7 +12325,7 @@
         <v>4.0974977954143996E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -11745,7 +12393,7 @@
         <v>4.0241621450166996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -11813,7 +12461,7 @@
         <v>4.3394097222222002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -11881,7 +12529,7 @@
         <v>4.1183626228268998E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -11949,7 +12597,7 @@
         <v>1.00943649781341E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -11978,7 +12626,7 @@
         <v>1.6868626448180699E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -12007,7 +12655,7 @@
         <v>3.7060657596370999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -12036,7 +12684,7 @@
         <v>8.4849064625850002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -12065,7 +12713,7 @@
         <v>1.00943649781341E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -12073,7 +12721,7 @@
       <c r="F70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -12141,7 +12789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -12209,7 +12857,7 @@
         <v>8.3705357142857103E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -12277,7 +12925,7 @@
         <v>8.9905753968249995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -12345,7 +12993,7 @@
         <v>3.6458333333330001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -12413,7 +13061,7 @@
         <v>1.4989016439909001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -12481,7 +13129,7 @@
         <v>4.2517006802720997E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -12549,7 +13197,7 @@
         <v>1.4349489795910001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -12617,7 +13265,7 @@
         <v>1.1433531746030999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -12685,7 +13333,7 @@
         <v>1.7671130952380001E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -12714,7 +13362,7 @@
         <v>4.1530685689799998E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -12743,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -12772,7 +13420,7 @@
         <v>2.79017857142857E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -12801,7 +13449,7 @@
         <v>1.7671130952380001E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -12881,7 +13529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -12961,7 +13609,7 @@
         <v>0.5412197115803431</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -13041,7 +13689,7 @@
         <v>0.58016658535577448</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -13121,7 +13769,7 @@
         <v>0.59393327625827308</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -13201,7 +13849,7 @@
         <v>0.58617770419910309</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -13281,7 +13929,7 @@
         <v>0.59699994785401356</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -13361,7 +14009,7 @@
         <v>0.5962181942003284</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -13441,7 +14089,7 @@
         <v>0.59661833304004386</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -13521,7 +14169,7 @@
         <v>0.58148419360656312</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -13550,7 +14198,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -13579,7 +14227,7 @@
         <v>0.59659542241813279</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -13608,7 +14256,7 @@
         <v>0.60012080905657106</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -13637,7 +14285,7 @@
         <v>0.61364582810354285</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -13666,7 +14314,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -13695,7 +14343,7 @@
         <v>0.57787472035794185</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -13724,7 +14372,7 @@
         <v>0.57936188345584316</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -13753,7 +14401,7 @@
         <v>0.58148419360656312</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -13782,7 +14430,7 @@
         <v>0.51946308724832213</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -13811,7 +14459,7 @@
         <v>0.65100671140939592</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -13840,7 +14488,7 @@
         <v>0.66174496644295311</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -13867,6 +14515,1182 @@
       </c>
       <c r="I105">
         <v>0.73288590604026849</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" t="s">
+        <v>155</v>
+      </c>
+      <c r="F108" t="s">
+        <v>156</v>
+      </c>
+      <c r="G108" t="s">
+        <v>157</v>
+      </c>
+      <c r="H108" t="s">
+        <v>158</v>
+      </c>
+      <c r="I108" t="s">
+        <v>159</v>
+      </c>
+      <c r="L108" t="s">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>2</v>
+      </c>
+      <c r="N108" t="s">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>4</v>
+      </c>
+      <c r="P108" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>6</v>
+      </c>
+      <c r="R108" t="s">
+        <v>7</v>
+      </c>
+      <c r="S108" t="s">
+        <v>8</v>
+      </c>
+      <c r="T108" t="s">
+        <v>9</v>
+      </c>
+      <c r="U108" t="s">
+        <v>10</v>
+      </c>
+      <c r="V108" t="s">
+        <v>11</v>
+      </c>
+      <c r="W108" t="s">
+        <v>12</v>
+      </c>
+      <c r="X108" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="C109">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="D109">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="E109">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="F109">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="G109">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="H109">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="I109">
+        <v>0.60276497695852527</v>
+      </c>
+      <c r="L109" t="s">
+        <v>152</v>
+      </c>
+      <c r="M109">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="N109">
+        <v>0.26322580645161292</v>
+      </c>
+      <c r="O109">
+        <v>0.16027649769585259</v>
+      </c>
+      <c r="P109">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="Q109">
+        <v>0.38372284397630019</v>
+      </c>
+      <c r="R109">
+        <v>0.64865262233925836</v>
+      </c>
+      <c r="S109">
+        <v>0.75745666008338819</v>
+      </c>
+      <c r="T109">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="U109">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="V109">
+        <v>0.62346939903204812</v>
+      </c>
+      <c r="W109">
+        <v>0.66641052317498783</v>
+      </c>
+      <c r="X109">
+        <v>0.70245806042023973</v>
+      </c>
+      <c r="Y109">
+        <v>0.38372284397630019</v>
+      </c>
+      <c r="Z109">
+        <v>0.56712307073366985</v>
+      </c>
+      <c r="AA109">
+        <v>0.59401565966888548</v>
+      </c>
+      <c r="AB109">
+        <v>0.61119020288271897</v>
+      </c>
+      <c r="AC109">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="AD109">
+        <v>0.81198156682027667</v>
+      </c>
+      <c r="AE109">
+        <v>0.88847926267281108</v>
+      </c>
+      <c r="AF109">
+        <v>0.93548387096774199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>0.26322580645161292</v>
+      </c>
+      <c r="C110">
+        <v>0.25253456221198162</v>
+      </c>
+      <c r="D110">
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="E110">
+        <v>0.25456221198156681</v>
+      </c>
+      <c r="F110">
+        <v>0.25622119815668198</v>
+      </c>
+      <c r="G110">
+        <v>0.25548387096774189</v>
+      </c>
+      <c r="H110">
+        <v>0.25658986175115212</v>
+      </c>
+      <c r="I110">
+        <v>0.25069124423963141</v>
+      </c>
+      <c r="L110" t="s">
+        <v>153</v>
+      </c>
+      <c r="M110">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="N110">
+        <v>0.25253456221198162</v>
+      </c>
+      <c r="O110">
+        <v>0.15281105990783411</v>
+      </c>
+      <c r="P110">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="Q110">
+        <v>0.3765415843756858</v>
+      </c>
+      <c r="R110">
+        <v>0.6237173579109061</v>
+      </c>
+      <c r="S110">
+        <v>0.72706824665350012</v>
+      </c>
+      <c r="T110">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="U110">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="V110">
+        <v>0.60387398727080899</v>
+      </c>
+      <c r="W110">
+        <v>0.64429408880993577</v>
+      </c>
+      <c r="X110">
+        <v>0.69021119104712159</v>
+      </c>
+      <c r="Y110">
+        <v>0.3765415843756858</v>
+      </c>
+      <c r="Z110">
+        <v>0.54852680857289149</v>
+      </c>
+      <c r="AA110">
+        <v>0.57364163801721413</v>
+      </c>
+      <c r="AB110">
+        <v>0.59461986760085672</v>
+      </c>
+      <c r="AC110">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="AD110">
+        <v>0.79170506912442407</v>
+      </c>
+      <c r="AE110">
+        <v>0.86728110599078345</v>
+      </c>
+      <c r="AF110">
+        <v>0.93548387096774199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>0.16027649769585259</v>
+      </c>
+      <c r="C111">
+        <v>0.15281105990783411</v>
+      </c>
+      <c r="D111">
+        <v>0.15594470046082951</v>
+      </c>
+      <c r="E111">
+        <v>0.15437788018433191</v>
+      </c>
+      <c r="F111">
+        <v>0.15456221198156689</v>
+      </c>
+      <c r="G111">
+        <v>0.15502304147465451</v>
+      </c>
+      <c r="H111">
+        <v>0.1557603686635945</v>
+      </c>
+      <c r="I111">
+        <v>0.14986175115207381</v>
+      </c>
+      <c r="L111" t="s">
+        <v>154</v>
+      </c>
+      <c r="M111">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="N111">
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="O111">
+        <v>0.15594470046082951</v>
+      </c>
+      <c r="P111">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="Q111">
+        <v>0.37427583936800529</v>
+      </c>
+      <c r="R111">
+        <v>0.63361531709457974</v>
+      </c>
+      <c r="S111">
+        <v>0.74426267281106007</v>
+      </c>
+      <c r="T111">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="U111">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="V111">
+        <v>0.60959800209431514</v>
+      </c>
+      <c r="W111">
+        <v>0.65218308403993286</v>
+      </c>
+      <c r="X111">
+        <v>0.69320114285223799</v>
+      </c>
+      <c r="Y111">
+        <v>0.37427583936800529</v>
+      </c>
+      <c r="Z111">
+        <v>0.55260794748006725</v>
+      </c>
+      <c r="AA111">
+        <v>0.57884888937653911</v>
+      </c>
+      <c r="AB111">
+        <v>0.59828756346826872</v>
+      </c>
+      <c r="AC111">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="AD111">
+        <v>0.80552995391705073</v>
+      </c>
+      <c r="AE111">
+        <v>0.88110599078341012</v>
+      </c>
+      <c r="AF111">
+        <v>0.93548387096774199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="C112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="D112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="E112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="F112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="G112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="H112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="I112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="L112" t="s">
+        <v>155</v>
+      </c>
+      <c r="M112">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="N112">
+        <v>0.25456221198156681</v>
+      </c>
+      <c r="O112">
+        <v>0.15437788018433191</v>
+      </c>
+      <c r="P112">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="Q112">
+        <v>0.38515141540487158</v>
+      </c>
+      <c r="R112">
+        <v>0.62901689708141317</v>
+      </c>
+      <c r="S112">
+        <v>0.73385780118499011</v>
+      </c>
+      <c r="T112">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="U112">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="V112">
+        <v>0.61122936171134368</v>
+      </c>
+      <c r="W112">
+        <v>0.65221012031650827</v>
+      </c>
+      <c r="X112">
+        <v>0.69611834294767871</v>
+      </c>
+      <c r="Y112">
+        <v>0.38515141540487158</v>
+      </c>
+      <c r="Z112">
+        <v>0.55606427839953176</v>
+      </c>
+      <c r="AA112">
+        <v>0.58163847438617022</v>
+      </c>
+      <c r="AB112">
+        <v>0.60173608523731292</v>
+      </c>
+      <c r="AC112">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="AD112">
+        <v>0.79354838709677422</v>
+      </c>
+      <c r="AE112">
+        <v>0.86912442396313361</v>
+      </c>
+      <c r="AF112">
+        <v>0.93548387096774199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>0.38372284397630019</v>
+      </c>
+      <c r="C113">
+        <v>0.3765415843756858</v>
+      </c>
+      <c r="D113">
+        <v>0.37427583936800529</v>
+      </c>
+      <c r="E113">
+        <v>0.38515141540487158</v>
+      </c>
+      <c r="F113">
+        <v>0.37765525565064728</v>
+      </c>
+      <c r="G113">
+        <v>0.37458305903006361</v>
+      </c>
+      <c r="H113">
+        <v>0.37746324336186088</v>
+      </c>
+      <c r="I113">
+        <v>0.3741222295369761</v>
+      </c>
+      <c r="L113" t="s">
+        <v>156</v>
+      </c>
+      <c r="M113">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="N113">
+        <v>0.25622119815668198</v>
+      </c>
+      <c r="O113">
+        <v>0.15456221198156689</v>
+      </c>
+      <c r="P113">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="Q113">
+        <v>0.37765525565064728</v>
+      </c>
+      <c r="R113">
+        <v>0.63142857142857145</v>
+      </c>
+      <c r="S113">
+        <v>0.73449308755760367</v>
+      </c>
+      <c r="T113">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="U113">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="V113">
+        <v>0.60921670361655456</v>
+      </c>
+      <c r="W113">
+        <v>0.64937557922327394</v>
+      </c>
+      <c r="X113">
+        <v>0.69288794872033677</v>
+      </c>
+      <c r="Y113">
+        <v>0.37765525565064728</v>
+      </c>
+      <c r="Z113">
+        <v>0.55329260844122585</v>
+      </c>
+      <c r="AA113">
+        <v>0.57822331638748692</v>
+      </c>
+      <c r="AB113">
+        <v>0.59818171753223348</v>
+      </c>
+      <c r="AC113">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="AD113">
+        <v>0.79631336405529962</v>
+      </c>
+      <c r="AE113">
+        <v>0.87004608294930874</v>
+      </c>
+      <c r="AF113">
+        <v>0.93548387096774199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>0.64865262233925836</v>
+      </c>
+      <c r="C114">
+        <v>0.6237173579109061</v>
+      </c>
+      <c r="D114">
+        <v>0.63361531709457974</v>
+      </c>
+      <c r="E114">
+        <v>0.62901689708141317</v>
+      </c>
+      <c r="F114">
+        <v>0.63142857142857145</v>
+      </c>
+      <c r="G114">
+        <v>0.63472350230414742</v>
+      </c>
+      <c r="H114">
+        <v>0.6290520078999341</v>
+      </c>
+      <c r="I114">
+        <v>0.61943932411674352</v>
+      </c>
+      <c r="L114" t="s">
+        <v>157</v>
+      </c>
+      <c r="M114">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="N114">
+        <v>0.25548387096774189</v>
+      </c>
+      <c r="O114">
+        <v>0.15502304147465451</v>
+      </c>
+      <c r="P114">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="Q114">
+        <v>0.37458305903006361</v>
+      </c>
+      <c r="R114">
+        <v>0.63472350230414742</v>
+      </c>
+      <c r="S114">
+        <v>0.73802062760588094</v>
+      </c>
+      <c r="T114">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="U114">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="V114">
+        <v>0.61015886297909738</v>
+      </c>
+      <c r="W114">
+        <v>0.6510658638061525</v>
+      </c>
+      <c r="X114">
+        <v>0.69369007317415776</v>
+      </c>
+      <c r="Y114">
+        <v>0.37458305903006361</v>
+      </c>
+      <c r="Z114">
+        <v>0.5526340428644575</v>
+      </c>
+      <c r="AA114">
+        <v>0.57930657352546755</v>
+      </c>
+      <c r="AB114">
+        <v>0.59900301995488259</v>
+      </c>
+      <c r="AC114">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="AD114">
+        <v>0.80092165898617507</v>
+      </c>
+      <c r="AE114">
+        <v>0.87004608294930874</v>
+      </c>
+      <c r="AF114">
+        <v>0.93548387096774199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>0.75745666008338819</v>
+      </c>
+      <c r="C115">
+        <v>0.72706824665350012</v>
+      </c>
+      <c r="D115">
+        <v>0.74426267281106007</v>
+      </c>
+      <c r="E115">
+        <v>0.73385780118499011</v>
+      </c>
+      <c r="F115">
+        <v>0.73449308755760367</v>
+      </c>
+      <c r="G115">
+        <v>0.73802062760588094</v>
+      </c>
+      <c r="H115">
+        <v>0.73685099846390167</v>
+      </c>
+      <c r="I115">
+        <v>0.71484200131665576</v>
+      </c>
+      <c r="L115" t="s">
+        <v>158</v>
+      </c>
+      <c r="M115">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="N115">
+        <v>0.25658986175115212</v>
+      </c>
+      <c r="O115">
+        <v>0.1557603686635945</v>
+      </c>
+      <c r="P115">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="Q115">
+        <v>0.37746324336186088</v>
+      </c>
+      <c r="R115">
+        <v>0.6290520078999341</v>
+      </c>
+      <c r="S115">
+        <v>0.73685099846390167</v>
+      </c>
+      <c r="T115">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="U115">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="V115">
+        <v>0.60920417989958642</v>
+      </c>
+      <c r="W115">
+        <v>0.65162069976123593</v>
+      </c>
+      <c r="X115">
+        <v>0.69407528689100739</v>
+      </c>
+      <c r="Y115">
+        <v>0.37746324336186088</v>
+      </c>
+      <c r="Z115">
+        <v>0.55478922536756636</v>
+      </c>
+      <c r="AA115">
+        <v>0.58148140223831468</v>
+      </c>
+      <c r="AB115">
+        <v>0.60076298512755844</v>
+      </c>
+      <c r="AC115">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="AD115">
+        <v>0.79170506912442407</v>
+      </c>
+      <c r="AE115">
+        <v>0.86820276497695859</v>
+      </c>
+      <c r="AF115">
+        <v>0.93548387096774199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="C116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="D116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="E116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="F116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="G116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="H116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="I116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="L116" t="s">
+        <v>159</v>
+      </c>
+      <c r="M116">
+        <v>0.60276497695852527</v>
+      </c>
+      <c r="N116">
+        <v>0.25069124423963141</v>
+      </c>
+      <c r="O116">
+        <v>0.14986175115207381</v>
+      </c>
+      <c r="P116">
+        <v>1.9308755760368661E-2</v>
+      </c>
+      <c r="Q116">
+        <v>0.3741222295369761</v>
+      </c>
+      <c r="R116">
+        <v>0.61943932411674352</v>
+      </c>
+      <c r="S116">
+        <v>0.71484200131665576</v>
+      </c>
+      <c r="T116">
+        <v>0.86081852095676969</v>
+      </c>
+      <c r="U116">
+        <v>0.60276497695852527</v>
+      </c>
+      <c r="V116">
+        <v>0.60248234736646322</v>
+      </c>
+      <c r="W116">
+        <v>0.63998291739895707</v>
+      </c>
+      <c r="X116">
+        <v>0.68992037808426931</v>
+      </c>
+      <c r="Y116">
+        <v>0.3741222295369761</v>
+      </c>
+      <c r="Z116">
+        <v>0.54630731109648167</v>
+      </c>
+      <c r="AA116">
+        <v>0.57012608676343035</v>
+      </c>
+      <c r="AB116">
+        <v>0.59298580583808636</v>
+      </c>
+      <c r="AC116">
+        <v>0.60276497695852527</v>
+      </c>
+      <c r="AD116">
+        <v>0.79170506912442407</v>
+      </c>
+      <c r="AE116">
+        <v>0.86175115207373276</v>
+      </c>
+      <c r="AF116">
+        <v>0.93548387096774199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="C117">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="D117">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="E117">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="F117">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="G117">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="H117">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="I117">
+        <v>0.60276497695852527</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118">
+        <v>0.62346939903204812</v>
+      </c>
+      <c r="C118">
+        <v>0.60387398727080899</v>
+      </c>
+      <c r="D118">
+        <v>0.60959800209431514</v>
+      </c>
+      <c r="E118">
+        <v>0.61122936171134368</v>
+      </c>
+      <c r="F118">
+        <v>0.60921670361655456</v>
+      </c>
+      <c r="G118">
+        <v>0.61015886297909738</v>
+      </c>
+      <c r="H118">
+        <v>0.60920417989958642</v>
+      </c>
+      <c r="I118">
+        <v>0.60248234736646322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119">
+        <v>0.66641052317498783</v>
+      </c>
+      <c r="C119">
+        <v>0.64429408880993577</v>
+      </c>
+      <c r="D119">
+        <v>0.65218308403993286</v>
+      </c>
+      <c r="E119">
+        <v>0.65221012031650827</v>
+      </c>
+      <c r="F119">
+        <v>0.64937557922327394</v>
+      </c>
+      <c r="G119">
+        <v>0.6510658638061525</v>
+      </c>
+      <c r="H119">
+        <v>0.65162069976123593</v>
+      </c>
+      <c r="I119">
+        <v>0.63998291739895707</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120">
+        <v>0.70245806042023973</v>
+      </c>
+      <c r="C120">
+        <v>0.69021119104712159</v>
+      </c>
+      <c r="D120">
+        <v>0.69320114285223799</v>
+      </c>
+      <c r="E120">
+        <v>0.69611834294767871</v>
+      </c>
+      <c r="F120">
+        <v>0.69288794872033677</v>
+      </c>
+      <c r="G120">
+        <v>0.69369007317415776</v>
+      </c>
+      <c r="H120">
+        <v>0.69407528689100739</v>
+      </c>
+      <c r="I120">
+        <v>0.68992037808426931</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121">
+        <v>0.38372284397630019</v>
+      </c>
+      <c r="C121">
+        <v>0.3765415843756858</v>
+      </c>
+      <c r="D121">
+        <v>0.37427583936800529</v>
+      </c>
+      <c r="E121">
+        <v>0.38515141540487158</v>
+      </c>
+      <c r="F121">
+        <v>0.37765525565064728</v>
+      </c>
+      <c r="G121">
+        <v>0.37458305903006361</v>
+      </c>
+      <c r="H121">
+        <v>0.37746324336186088</v>
+      </c>
+      <c r="I121">
+        <v>0.3741222295369761</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122">
+        <v>0.56712307073366985</v>
+      </c>
+      <c r="C122">
+        <v>0.54852680857289149</v>
+      </c>
+      <c r="D122">
+        <v>0.55260794748006725</v>
+      </c>
+      <c r="E122">
+        <v>0.55606427839953176</v>
+      </c>
+      <c r="F122">
+        <v>0.55329260844122585</v>
+      </c>
+      <c r="G122">
+        <v>0.5526340428644575</v>
+      </c>
+      <c r="H122">
+        <v>0.55478922536756636</v>
+      </c>
+      <c r="I122">
+        <v>0.54630731109648167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123">
+        <v>0.59401565966888548</v>
+      </c>
+      <c r="C123">
+        <v>0.57364163801721413</v>
+      </c>
+      <c r="D123">
+        <v>0.57884888937653911</v>
+      </c>
+      <c r="E123">
+        <v>0.58163847438617022</v>
+      </c>
+      <c r="F123">
+        <v>0.57822331638748692</v>
+      </c>
+      <c r="G123">
+        <v>0.57930657352546755</v>
+      </c>
+      <c r="H123">
+        <v>0.58148140223831468</v>
+      </c>
+      <c r="I123">
+        <v>0.57012608676343035</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124">
+        <v>0.61119020288271897</v>
+      </c>
+      <c r="C124">
+        <v>0.59461986760085672</v>
+      </c>
+      <c r="D124">
+        <v>0.59828756346826872</v>
+      </c>
+      <c r="E124">
+        <v>0.60173608523731292</v>
+      </c>
+      <c r="F124">
+        <v>0.59818171753223348</v>
+      </c>
+      <c r="G124">
+        <v>0.59900301995488259</v>
+      </c>
+      <c r="H124">
+        <v>0.60076298512755844</v>
+      </c>
+      <c r="I124">
+        <v>0.59298580583808636</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="C125">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="D125">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="E125">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="F125">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="G125">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="H125">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="I125">
+        <v>0.60276497695852527</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126">
+        <v>0.81198156682027667</v>
+      </c>
+      <c r="C126">
+        <v>0.79170506912442407</v>
+      </c>
+      <c r="D126">
+        <v>0.80552995391705073</v>
+      </c>
+      <c r="E126">
+        <v>0.79354838709677422</v>
+      </c>
+      <c r="F126">
+        <v>0.79631336405529962</v>
+      </c>
+      <c r="G126">
+        <v>0.80092165898617507</v>
+      </c>
+      <c r="H126">
+        <v>0.79170506912442407</v>
+      </c>
+      <c r="I126">
+        <v>0.79170506912442407</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127">
+        <v>0.88847926267281108</v>
+      </c>
+      <c r="C127">
+        <v>0.86728110599078345</v>
+      </c>
+      <c r="D127">
+        <v>0.88110599078341012</v>
+      </c>
+      <c r="E127">
+        <v>0.86912442396313361</v>
+      </c>
+      <c r="F127">
+        <v>0.87004608294930874</v>
+      </c>
+      <c r="G127">
+        <v>0.87004608294930874</v>
+      </c>
+      <c r="H127">
+        <v>0.86820276497695859</v>
+      </c>
+      <c r="I127">
+        <v>0.86175115207373276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="C128">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="D128">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="E128">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F128">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="G128">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="H128">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="I128">
+        <v>0.93548387096774199</v>
       </c>
     </row>
   </sheetData>
@@ -17964,69 +19788,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAE7E8B-6D93-4171-9A24-226920DB92D8}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AC10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
-    <col min="3" max="25" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="6.7109375" style="2" customWidth="1"/>
+    <col min="3" max="25" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="35" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="35" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-    </row>
-    <row r="2" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
       <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
@@ -18111,8 +19941,20 @@
       <c r="AC2" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>105</v>
       </c>
@@ -18188,20 +20030,32 @@
       <c r="Y3" s="30">
         <v>0</v>
       </c>
-      <c r="Z3" s="39">
+      <c r="Z3" s="30">
         <v>0.45906040268456377</v>
       </c>
-      <c r="AA3" s="39">
+      <c r="AA3" s="30">
         <v>0.63624161073825491</v>
       </c>
-      <c r="AB3" s="39">
+      <c r="AB3" s="30">
         <v>0.55979169328825873</v>
       </c>
-      <c r="AC3" s="39">
+      <c r="AC3" s="30">
         <v>0.53382550335570467</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="2">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.64865262233925836</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.62346939903204812</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.56712307073366985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>123</v>
       </c>
@@ -18277,20 +20131,32 @@
       <c r="Y4" s="25">
         <v>0</v>
       </c>
-      <c r="Z4" s="43">
+      <c r="Z4" s="34">
         <v>0.54093959731543628</v>
       </c>
-      <c r="AA4" s="40">
+      <c r="AA4" s="25">
         <v>0.65637583892617446</v>
       </c>
-      <c r="AB4" s="40">
+      <c r="AB4" s="25">
         <v>0.60820197102678586</v>
       </c>
-      <c r="AC4" s="40">
+      <c r="AC4" s="25">
         <v>0.59167785234899328</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" s="2">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.63472350230414742</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.61015886297909738</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.5526340428644575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>110</v>
       </c>
@@ -18378,8 +20244,20 @@
       <c r="AC5" s="16">
         <v>0.59178970917225948</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="2">
+        <v>0.60737327188940093</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.63142857142857145</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.60921670361655456</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.55329260844122585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>107</v>
       </c>
@@ -18455,20 +20333,32 @@
       <c r="Y6" s="3">
         <v>8.4325396825389999E-4</v>
       </c>
-      <c r="Z6" s="41">
+      <c r="Z6" s="3">
         <v>0.51543624161073831</v>
       </c>
-      <c r="AA6" s="41">
+      <c r="AA6" s="3">
         <v>0.65369127516778525</v>
       </c>
-      <c r="AB6" s="41">
+      <c r="AB6" s="3">
         <v>0.59588690162440094</v>
       </c>
-      <c r="AC6" s="41">
+      <c r="AC6" s="3">
         <v>0.57599552572706947</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="2">
+        <v>0.60184331797235013</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.6237173579109061</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.60387398727080899</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.54852680857289149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>109</v>
       </c>
@@ -18544,20 +20434,32 @@
       <c r="Y7" s="19">
         <v>1.2896825396825E-3</v>
       </c>
-      <c r="Z7" s="41">
+      <c r="Z7" s="3">
         <v>0.51677852348993292</v>
       </c>
       <c r="AA7" s="16">
         <v>0.66845637583892625</v>
       </c>
-      <c r="AB7" s="41">
+      <c r="AB7" s="3">
         <v>0.60399148339870223</v>
       </c>
-      <c r="AC7" s="41">
+      <c r="AC7" s="3">
         <v>0.58194630872483222</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2">
+        <v>0.61843317972350231</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0.62901689708141317</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0.61122936171134368</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0.55606427839953176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>108</v>
       </c>
@@ -18633,20 +20535,32 @@
       <c r="Y8" s="3">
         <v>2.232142857142E-4</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="3">
         <v>0.53154362416107381</v>
       </c>
       <c r="AA8" s="16">
         <v>0.66845637583892614</v>
       </c>
-      <c r="AB8" s="41">
+      <c r="AB8" s="3">
         <v>0.61028218606613982</v>
       </c>
-      <c r="AC8" s="41">
+      <c r="AC8" s="3">
         <v>0.59035794183445189</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="2">
+        <v>0.60552995391705067</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0.63361531709457974</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0.60959800209431514</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0.55260794748006725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>124</v>
       </c>
@@ -18722,7 +20636,7 @@
       <c r="Y9" s="16">
         <v>1.1061507936507E-3</v>
       </c>
-      <c r="Z9" s="41">
+      <c r="Z9" s="3">
         <v>0.53557046979865763</v>
       </c>
       <c r="AA9" s="19">
@@ -18734,8 +20648,20 @@
       <c r="AC9" s="19">
         <v>0.59281879194630882</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="2">
+        <v>0.60184331797235024</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0.6290520078999341</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0.60920417989958642</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0.55478922536756636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>106</v>
       </c>
@@ -18811,21 +20737,34 @@
       <c r="Y10" s="6">
         <v>2.79017857142857E-5</v>
       </c>
-      <c r="Z10" s="42">
+      <c r="Z10" s="6">
         <v>0.51946308724832213</v>
       </c>
-      <c r="AA10" s="42">
+      <c r="AA10" s="6">
         <v>0.65100671140939592</v>
       </c>
-      <c r="AB10" s="42">
+      <c r="AB10" s="6">
         <v>0.59659542241813279</v>
       </c>
-      <c r="AC10" s="42">
+      <c r="AC10" s="6">
         <v>0.57787472035794185</v>
       </c>
+      <c r="AD10" s="2">
+        <v>0.60276497695852527</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0.61943932411674352</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0.60248234736646322</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.54630731109648167</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="A1:A2"/>

--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.0.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58DE42E-5C84-4576-8C86-C85E5959EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C44CC6-31A6-41D2-80A6-048F1ABA09DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21210" windowHeight="12990" activeTab="2" xr2:uid="{53722CFA-7A49-4FF3-BDD5-F566020460F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{53722CFA-7A49-4FF3-BDD5-F566020460F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -877,7 +877,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -19790,8 +19831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAE7E8B-6D93-4171-9A24-226920DB92D8}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20042,16 +20083,16 @@
       <c r="AC3" s="30">
         <v>0.53382550335570467</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="19">
         <v>0.61935483870967745</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="19">
         <v>0.64865262233925836</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="19">
         <v>0.62346939903204812</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="19">
         <v>0.56712307073366985</v>
       </c>
     </row>
@@ -20143,16 +20184,16 @@
       <c r="AC4" s="25">
         <v>0.59167785234899328</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="3">
         <v>0.60184331797235013</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="16">
         <v>0.63472350230414742</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="3">
         <v>0.61015886297909738</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="3">
         <v>0.5526340428644575</v>
       </c>
     </row>
@@ -20244,16 +20285,16 @@
       <c r="AC5" s="16">
         <v>0.59178970917225948</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="3">
         <v>0.60737327188940093</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="3">
         <v>0.63142857142857145</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="3">
         <v>0.60921670361655456</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="3">
         <v>0.55329260844122585</v>
       </c>
     </row>
@@ -20345,16 +20386,16 @@
       <c r="AC6" s="3">
         <v>0.57599552572706947</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="3">
         <v>0.60184331797235013</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="3">
         <v>0.6237173579109061</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="3">
         <v>0.60387398727080899</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="3">
         <v>0.54852680857289149</v>
       </c>
     </row>
@@ -20446,16 +20487,16 @@
       <c r="AC7" s="3">
         <v>0.58194630872483222</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="16">
         <v>0.61843317972350231</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="3">
         <v>0.62901689708141317</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="16">
         <v>0.61122936171134368</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="16">
         <v>0.55606427839953176</v>
       </c>
     </row>
@@ -20547,16 +20588,16 @@
       <c r="AC8" s="3">
         <v>0.59035794183445189</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="3">
         <v>0.60552995391705067</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="3">
         <v>0.63361531709457974</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="3">
         <v>0.60959800209431514</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="3">
         <v>0.55260794748006725</v>
       </c>
     </row>
@@ -20648,16 +20689,16 @@
       <c r="AC9" s="19">
         <v>0.59281879194630882</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="3">
         <v>0.60184331797235024</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="3">
         <v>0.6290520078999341</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="3">
         <v>0.60920417989958642</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9" s="3">
         <v>0.55478922536756636</v>
       </c>
     </row>
@@ -20749,16 +20790,16 @@
       <c r="AC10" s="6">
         <v>0.57787472035794185</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="3">
         <v>0.60276497695852527</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="3">
         <v>0.61943932411674352</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="3">
         <v>0.60248234736646322</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AG10" s="3">
         <v>0.54630731109648167</v>
       </c>
     </row>
@@ -20775,7 +20816,7 @@
     <mergeCell ref="R1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B10">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20785,7 +20826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:AC9 B4:AC4">
-    <cfRule type="colorScale" priority="629">
+    <cfRule type="colorScale" priority="633">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20795,7 +20836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:AC10 B5:AC8 B3:AC3">
-    <cfRule type="colorScale" priority="895">
+    <cfRule type="colorScale" priority="899">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20805,7 +20846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20815,7 +20856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20825,7 +20866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20835,7 +20876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F10">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20845,7 +20886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G10">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20855,7 +20896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20865,7 +20906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I10">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20875,7 +20916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J10">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20885,7 +20926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K10">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20895,7 +20936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L10">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20905,7 +20946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M10">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20915,7 +20956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N10">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20925,7 +20966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O10">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20935,7 +20976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P10">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20945,7 +20986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q10">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20955,7 +20996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R10">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20965,7 +21006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S10">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20975,7 +21016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T10">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20985,7 +21026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U10">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20995,7 +21036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V10">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21005,7 +21046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W10">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21015,7 +21056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X10">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21025,7 +21066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y10">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21035,7 +21076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z10">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21045,7 +21086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA10">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21055,7 +21096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB10">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21065,7 +21106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC10">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21074,6 +21115,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AD10">
+    <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE10">
+    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF10">
+    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AG10">
+    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>